--- a/results_analysis/spark_motorFailure_01_hold2.xlsx
+++ b/results_analysis/spark_motorFailure_01_hold2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA5B67-4C79-459A-9918-20C9F1732A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF06AF-75CD-433C-94F6-ECB91767F9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="acc_best" sheetId="11" r:id="rId3"/>
     <sheet name="nprot_best" sheetId="3" r:id="rId4"/>
     <sheet name="nprot_mean" sheetId="8" r:id="rId5"/>
-    <sheet name="K_best" sheetId="9" r:id="rId6"/>
-    <sheet name="K_mean" sheetId="10" r:id="rId7"/>
-    <sheet name="hp_best" sheetId="12" r:id="rId8"/>
+    <sheet name="hp_best" sheetId="12" r:id="rId6"/>
+    <sheet name="K_best" sheetId="9" r:id="rId7"/>
+    <sheet name="K_mean" sheetId="10" r:id="rId8"/>
     <sheet name="v1_v2_best" sheetId="13" r:id="rId9"/>
     <sheet name="MCC" sheetId="14" r:id="rId10"/>
     <sheet name="F1S" sheetId="15" r:id="rId11"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="31">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -103,31 +103,31 @@
     <t>v2</t>
   </si>
   <si>
-    <t>Motor Failure DataSet 01 - hold 01 - Accuracy (mean)</t>
+    <t>Motor Failure DataSet 01 - hold 02 - MCC (Multiclass)</t>
   </si>
   <si>
-    <t>Motor Failure DataSet 01 - hold 01 - Accuracy (Median)</t>
+    <t>Motor Failure DataSet 01 - hold 02 - F1-Score (Macro-Averaged)</t>
   </si>
   <si>
-    <t>Motor Failure DataSet 01 - hold 01 - #Prot (Best)</t>
+    <t>Motor Failure DataSet 01 - hold 02 - Accuracy (mean)</t>
   </si>
   <si>
-    <t>Motor Failure DataSet 01 - hold 01 - #Prot (Mean)</t>
+    <t>Motor Failure DataSet 02 - hold 01 - Accuracy (Median)</t>
   </si>
   <si>
-    <t>Motor Failure DataSet 01 - hold 01 - K for KNN (Best)</t>
+    <t>Motor Failure DataSet 01 - hold 02 - #Prot (Best)</t>
   </si>
   <si>
-    <t>Motor Failure DataSet 01 - hold 01 - K for KNN (Mean)</t>
+    <t>Motor Failure DataSet 01 - hold 02 - #Prot (Mean)</t>
   </si>
   <si>
-    <t>Motor Failure DataSet 01 - hold 01 - HP (best)</t>
+    <t>Motor Failure DataSet 01 - hold 02 - HP (best)</t>
   </si>
   <si>
-    <t>Motor Failure DataSet 01 - hold 01 - MCC</t>
+    <t>Motor Failure DataSet 01 - hold 02 - K for KNN (Best)</t>
   </si>
   <si>
-    <t>Motor Failure DataSet 01 - hold 01 - F1-Score</t>
+    <t>Motor Failure DataSet 01 - hold 02 - K for KNN (Mean)</t>
   </si>
 </sst>
 </file>
@@ -149,12 +149,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -516,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,9 +629,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,19 +653,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -665,10 +665,28 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -689,43 +707,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1010,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1029,19 +1140,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,28 +1200,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
+      <c r="D5" s="61">
+        <v>0.57076271186440697</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.49576271186440701</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.50720338983050905</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.55127118644067796</v>
+      </c>
+      <c r="H5" s="60">
+        <v>0.67711864406779698</v>
+      </c>
+      <c r="I5" s="60">
+        <v>0.56652542372881398</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.45805084745762698</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0.55254237288135599</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
+      <c r="D6" s="48">
+        <v>0.55593220338983096</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0.63898305084745799</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.44279661016949201</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0.63601694915254203</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0.68474576271186505</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.56483050847457605</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.43644067796610198</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.56906779661017004</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1120,14 +1263,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
+      <c r="D7" s="48">
+        <v>0.50889830508474598</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0.61906779661016997</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.56313559322033901</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0.69449152542372905</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.58262711864406802</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.533474576271187</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.519067796610169</v>
+      </c>
+      <c r="K7" s="63">
+        <v>0.64788135593220297</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1135,14 +1294,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
+      <c r="D8" s="49">
+        <v>0.55805084745762701</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.60677966101694902</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.57796610169491502</v>
+      </c>
+      <c r="G8" s="65">
+        <v>0.615254237288136</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0.615254237288136</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.49406779661016997</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.54110169491525395</v>
+      </c>
+      <c r="K8" s="64">
+        <v>0.64788135593220297</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1154,28 +1329,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
+      <c r="D9" s="51">
+        <v>0.53135593220338995</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.466525423728814</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.55593220338982996</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0.677966101694915</v>
+      </c>
+      <c r="H9" s="66">
+        <v>0.591525423728813</v>
+      </c>
+      <c r="I9" s="66">
+        <v>0.58898305084745795</v>
+      </c>
+      <c r="J9" s="52">
+        <v>0.48262711864406799</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0.58135593220338999</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
+      <c r="D10" s="48">
+        <v>0.53220338983050897</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.54194915254237297</v>
+      </c>
+      <c r="G10" s="62">
+        <v>0.60423728813559296</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.59364406779661005</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0.61313559322033895</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.54872881355932202</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1185,14 +1392,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="D11" s="48">
+        <v>0.53008474576271203</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0.63262711864406795</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.59110169491525399</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.59661016949152601</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0.66652542372881396</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.44745762711864401</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.58771186440678003</v>
+      </c>
+      <c r="K11" s="63">
+        <v>0.64449152542372901</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1200,14 +1423,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="D12" s="49">
+        <v>0.48898305084745802</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.65042372881355903</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.51525423728813602</v>
+      </c>
+      <c r="G12" s="65">
+        <v>0.69152542372881398</v>
+      </c>
+      <c r="H12" s="65">
+        <v>0.67118644067796596</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.58389830508474605</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.43644067796610198</v>
+      </c>
+      <c r="K12" s="64">
+        <v>0.66567796610169505</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1219,28 +1458,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
+      <c r="D13" s="51">
+        <v>0.58940677966101696</v>
+      </c>
+      <c r="E13" s="66">
+        <v>0.66059322033898304</v>
+      </c>
+      <c r="F13" s="66">
+        <v>0.66271186440677998</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0.53050847457627104</v>
+      </c>
+      <c r="H13" s="52">
+        <v>0.65677966101694896</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.60296610169491505</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0.53220338983050897</v>
+      </c>
+      <c r="K13" s="67">
+        <v>0.71525423728813597</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
+      <c r="D14" s="48">
+        <v>0.60296610169491505</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.61906779661016897</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.60593220338983</v>
+      </c>
+      <c r="G14" s="62">
+        <v>0.639406779661017</v>
+      </c>
+      <c r="H14" s="62">
+        <v>0.72754237288135604</v>
+      </c>
+      <c r="I14" s="62">
+        <v>0.66186440677966096</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.490254237288136</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.610593220338983</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1250,14 +1521,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
+      <c r="D15" s="48">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.221186440677966</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.43432203389830498</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.26610169491525398</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.44364406779660998</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.32118644067796598</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.19618644067796601</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.32584745762711897</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1265,14 +1552,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
+      <c r="D16" s="49">
+        <v>0.33516949152542402</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.21864406779661</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.58008474576271196</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.26313559322033903</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.42669491525423697</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.41779661016949199</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.31440677966101699</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.27542372881355898</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1284,28 +1587,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
+      <c r="D17" s="68">
+        <v>0.63898305084745799</v>
+      </c>
+      <c r="E17" s="66">
+        <v>0.60127118644067801</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.58262711864406802</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0.54406779661017002</v>
+      </c>
+      <c r="H17" s="66">
+        <v>0.63813559322033897</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0.58050847457627097</v>
+      </c>
+      <c r="J17" s="52">
+        <v>0.54110169491525395</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0.59194915254237301</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
+      <c r="D18" s="48">
+        <v>0.57584745762711897</v>
+      </c>
+      <c r="E18" s="62">
+        <v>0.62881355932203398</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.55127118644067796</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.59661016949152601</v>
+      </c>
+      <c r="H18" s="62">
+        <v>0.62118644067796602</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.44788135593220302</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.581779661016949</v>
+      </c>
+      <c r="K18" s="63">
+        <v>0.63220338983050905</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1315,14 +1650,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
+      <c r="D19" s="69">
+        <v>0.64957627118644101</v>
+      </c>
+      <c r="E19" s="62">
+        <v>0.65635593220338995</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.61101694915254201</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.62330508474576296</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0.68728813559322</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.38516949152542401</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.46101694915254199</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.62076271186440701</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1330,14 +1681,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
+      <c r="D20" s="70">
+        <v>0.59830508474576305</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.52288135593220297</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.58432203389830495</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.48220338983050898</v>
+      </c>
+      <c r="H20" s="65">
+        <v>0.63516949152542401</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.49322033898305101</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.45169491525423699</v>
+      </c>
+      <c r="K20" s="64">
+        <v>0.58728813559322102</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -1680,40 +2047,1206 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065C56F-AEED-4D36-9CB5-AF6203A45422}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.18664172774256499</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.24198875436352699</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.21840504123526899</v>
+      </c>
+      <c r="G5" s="60">
+        <v>0.31801388151511401</v>
+      </c>
+      <c r="H5" s="60">
+        <v>0.24284501330296299</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.209166204116006</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.13345289983712</v>
+      </c>
+      <c r="K5" s="47">
+        <v>-1.9788639339478501E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0.14397925308822601</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1.22953025312565E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.29903416291010898</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.28042340556128798</v>
+      </c>
+      <c r="J6" s="62">
+        <v>0</v>
+      </c>
+      <c r="K6" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48">
+        <v>5.3729309585380303E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.23243244186961501</v>
+      </c>
+      <c r="F7" s="62">
+        <v>0.242397990713761</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0.19774264449513501</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.214587102415222</v>
+      </c>
+      <c r="I7" s="62">
+        <v>0.43296644640055598</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.12784293529989799</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.247947685275723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0.30831281153691498</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0</v>
+      </c>
+      <c r="F8" s="65">
+        <v>-1.5750172457760399E-2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.112126515927222</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0</v>
+      </c>
+      <c r="I8" s="65">
+        <v>-1.5750172457760399E-2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>-1.00683684098002E-2</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0.104518799586064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0.19741603266339999</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.17111880291651599</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.170929726406608</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.20728360300044299</v>
+      </c>
+      <c r="I9" s="66">
+        <v>0</v>
+      </c>
+      <c r="J9" s="52">
+        <v>0.122377264840923</v>
+      </c>
+      <c r="K9" s="67">
+        <v>0.181025240727621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="48">
+        <v>0.20237651035613199</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.28228478960537301</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.32665691259072399</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.26733356329768898</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.20513831824294901</v>
+      </c>
+      <c r="I10" s="62">
+        <v>0</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0.18029025812603799</v>
+      </c>
+      <c r="K10" s="15">
+        <v>-6.7818044136482396E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48">
+        <v>8.8937254286568804E-2</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0.24261405824419299</v>
+      </c>
+      <c r="F11" s="62">
+        <v>0.14260197484571299</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.29356037603061003</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0.31497559033758699</v>
+      </c>
+      <c r="I11" s="13">
+        <v>-7.7414746921665195E-2</v>
+      </c>
+      <c r="J11" s="13">
+        <v>6.7232924682090198E-3</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.27787945465948199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0.28851474779031</v>
+      </c>
+      <c r="E12" s="65">
+        <v>-6.0632681467771898E-2</v>
+      </c>
+      <c r="F12" s="14">
+        <v>-2.0206864987482E-2</v>
+      </c>
+      <c r="G12" s="65">
+        <v>0.36682693471561201</v>
+      </c>
+      <c r="H12" s="14">
+        <v>4.1660293346270499E-2</v>
+      </c>
+      <c r="I12" s="14">
+        <v>-1.9788639339478501E-2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>8.9796719115644699E-2</v>
+      </c>
+      <c r="K12" s="71">
+        <v>0.46996273462683502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="68">
+        <v>0.108281110360337</v>
+      </c>
+      <c r="E13" s="52">
+        <v>-1.94800919059379E-3</v>
+      </c>
+      <c r="F13" s="66">
+        <v>0.181025240727621</v>
+      </c>
+      <c r="G13" s="52">
+        <v>7.9512890344336007E-2</v>
+      </c>
+      <c r="H13" s="66">
+        <v>0.198589081855233</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.130488812263581</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0.100590569525286</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.25627715038250398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="69">
+        <v>0.15652170315115899</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.28851474779031</v>
+      </c>
+      <c r="F14" s="13">
+        <v>-2.26376528288963E-2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.17797824652594299</v>
+      </c>
+      <c r="H14" s="62">
+        <v>-4.2213418512696298E-2</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.242397990713761</v>
+      </c>
+      <c r="J14" s="62">
+        <v>0.25915604677278298</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.31361054460572002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="48">
+        <v>-2.0163616851249101E-2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>-5.7185592984284203E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.114425018494914</v>
+      </c>
+      <c r="G15" s="62">
+        <v>0.10852891983742299</v>
+      </c>
+      <c r="H15" s="62">
+        <v>-1.3534046664626801E-2</v>
+      </c>
+      <c r="I15" s="62">
+        <v>5.0886209667510798E-2</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.11682594395074999</v>
+      </c>
+      <c r="K15" s="15">
+        <v>-1.3012970032560999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="49">
+        <v>-0.10750002033427999</v>
+      </c>
+      <c r="E16" s="14">
+        <v>8.4988635195994006E-2</v>
+      </c>
+      <c r="F16" s="65">
+        <v>0.16084461444683401</v>
+      </c>
+      <c r="G16" s="14">
+        <v>-0.147771113907152</v>
+      </c>
+      <c r="H16" s="65">
+        <v>2.7481336382975501E-2</v>
+      </c>
+      <c r="I16" s="65">
+        <v>4.5905875628054003E-2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>5.85876663068002E-3</v>
+      </c>
+      <c r="K16" s="50">
+        <v>-0.147771113907152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51">
+        <v>4.89642996333862E-2</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.26640533322093801</v>
+      </c>
+      <c r="F17" s="66">
+        <v>5.9613193218119899E-2</v>
+      </c>
+      <c r="G17" s="52">
+        <v>7.7011995724085305E-2</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.28042340556128798</v>
+      </c>
+      <c r="I17" s="66">
+        <v>-1.3534046664626801E-2</v>
+      </c>
+      <c r="J17" s="66">
+        <v>0.24712883562437199</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0.24168821333858101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="48">
+        <v>0.14515618123149299</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2.7481336382975501E-2</v>
+      </c>
+      <c r="F18" s="62">
+        <v>0.178108054106489</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.22811372914658601</v>
+      </c>
+      <c r="H18" s="13">
+        <v>6.2564262183385302E-2</v>
+      </c>
+      <c r="I18" s="62">
+        <v>0</v>
+      </c>
+      <c r="J18" s="62">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>4.4099926859892301E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="48">
+        <v>0.130885464771368</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.18341183750748</v>
+      </c>
+      <c r="F19" s="62">
+        <v>3.75908369338201E-2</v>
+      </c>
+      <c r="G19" s="62">
+        <v>0.15652170315115899</v>
+      </c>
+      <c r="H19" s="62">
+        <v>7.6401712948784006E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.182940581575185</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.104229952012396</v>
+      </c>
+      <c r="K19" s="15">
+        <v>6.2564262183385302E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="49">
+        <v>7.5169537753433005E-2</v>
+      </c>
+      <c r="E20" s="65">
+        <v>0.22581329670237801</v>
+      </c>
+      <c r="F20" s="14">
+        <v>-1.6717168581314501E-2</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.27117279621776402</v>
+      </c>
+      <c r="H20" s="65">
+        <v>-2.7396930718156302E-2</v>
+      </c>
+      <c r="I20" s="65">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <v>8.9281139145465593E-2</v>
+      </c>
+      <c r="K20" s="50">
+        <v>-1.9747200913197E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1E589-1659-439B-B1DA-4F9E028A9755}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.57781753130590296</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.61425302386400804</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.48371998371998398</v>
+      </c>
+      <c r="G5" s="60">
+        <v>0.65720925728672397</v>
+      </c>
+      <c r="H5" s="60">
+        <v>0.61858585858585902</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.52488617709914198</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.50074200372580602</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0.48679714196955598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0.53002450980392202</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.43337334933973598</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.64880952380952395</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.54500542234004101</v>
+      </c>
+      <c r="J6" s="62">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="K6" s="63">
+        <v>0.48583877995642699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48">
+        <v>0.49387254901960798</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.58178273967747696</v>
+      </c>
+      <c r="F7" s="62">
+        <v>0.60340434759039396</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0.59874720357941802</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.55018520516416702</v>
+      </c>
+      <c r="I7" s="62">
+        <v>0.69838503543627295</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.49564840338216598</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.59331190908667497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0.60686323504914197</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="F8" s="65">
+        <v>0.48471615720523997</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.52265372168284796</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="I8" s="65">
+        <v>0.48471615720523997</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.47926329535731998</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0.55225939979303196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0.57132876903730601</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.46150793650793698</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.53321106196281498</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.54409750272206803</v>
+      </c>
+      <c r="I9" s="66">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="J9" s="52">
+        <v>0.49062167502659998</v>
+      </c>
+      <c r="K9" s="67">
+        <v>0.57391673746813898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="48">
+        <v>0.57497630331753602</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.64098434004474303</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.65790018637399095</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.63366678164884405</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.56084142394822001</v>
+      </c>
+      <c r="I10" s="62">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0.552443471918308</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.49499551321874802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48">
+        <v>0.52177241410366104</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0.58937728937728895</v>
+      </c>
+      <c r="F11" s="62">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.57725404797864499</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0.643545950970141</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.459954233409611</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.491964956195244</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.56406381192275401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0.59150275373721495</v>
+      </c>
+      <c r="E12" s="65">
+        <v>0.469662921348315</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.47123229761149898</v>
+      </c>
+      <c r="G12" s="65">
+        <v>0.68322147651006704</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.51612301957129603</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.48679714196955598</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.48342714196372699</v>
+      </c>
+      <c r="K12" s="71">
+        <v>0.67653508771929804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="68">
+        <v>0.536163522012579</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.48549763033175403</v>
+      </c>
+      <c r="F13" s="66">
+        <v>0.57391673746813898</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0.47391251958067199</v>
+      </c>
+      <c r="H13" s="66">
+        <v>0.58598834248203302</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.51892836342457804</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0.49316673174541198</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.58353510895883798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="69">
+        <v>0.57748890791624496</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.59150275373721495</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.469265367316342</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.53904551317486604</v>
+      </c>
+      <c r="H14" s="62">
+        <v>0.47787610619469001</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.60340434759039396</v>
+      </c>
+      <c r="J14" s="62">
+        <v>0.60148598446470802</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.61090678503487605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="48">
+        <v>0.426720647773279</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.41551277721490498</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.48319128787878801</v>
+      </c>
+      <c r="G15" s="62">
+        <v>0.54892966360856299</v>
+      </c>
+      <c r="H15" s="62">
+        <v>0.49081399150048999</v>
+      </c>
+      <c r="I15" s="62">
+        <v>0.49151389151389202</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.355777979981802</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.457135990661586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="49">
+        <v>0.390967741935484</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.45440860215053802</v>
+      </c>
+      <c r="F16" s="65">
+        <v>0.52472222222222198</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.376477809506018</v>
+      </c>
+      <c r="H16" s="65">
+        <v>0.49118579581483801</v>
+      </c>
+      <c r="I16" s="65">
+        <v>0.518858307849134</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.42686344106108698</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.376477809506018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51">
+        <v>0.46866791744840502</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.57383453104846105</v>
+      </c>
+      <c r="F17" s="66">
+        <v>0.51559449311639605</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0.47156291983878201</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.54500542234004101</v>
+      </c>
+      <c r="I17" s="66">
+        <v>0.49081399150048999</v>
+      </c>
+      <c r="J17" s="66">
+        <v>0.57640301543616101</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0.50789395293416795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="48">
+        <v>0.51116225546605298</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.49118579581483801</v>
+      </c>
+      <c r="F18" s="62">
+        <v>0.583393265773129</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.51948807446189604</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.50109688484703396</v>
+      </c>
+      <c r="I18" s="62">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="J18" s="62">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.464162984781542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="48">
+        <v>0.55223071502141297</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.56087187666134997</v>
+      </c>
+      <c r="F19" s="62">
+        <v>0.51346107203492597</v>
+      </c>
+      <c r="G19" s="62">
+        <v>0.57748890791624496</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0.53725490196078396</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.47427986173345299</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.47345537757437101</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.50109688484703396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="49">
+        <v>0.51113929401817804</v>
+      </c>
+      <c r="E20" s="65">
+        <v>0.61150382492495403</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.48878695208970402</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.61011264080100103</v>
+      </c>
+      <c r="H20" s="65">
+        <v>0.48245614035087703</v>
+      </c>
+      <c r="I20" s="65">
+        <v>0.48583877995642699</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.43090975520642999</v>
+      </c>
+      <c r="K20" s="50">
+        <v>0.45108984582668799</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1741,19 +3274,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1801,28 +3334,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="D5" s="13">
+        <v>0.50847457627118597</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.46186440677966101</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.51271186440677996</v>
+      </c>
+      <c r="G5" s="62">
+        <v>0.52118644067796605</v>
+      </c>
+      <c r="H5" s="62">
+        <v>0.70127118644067798</v>
+      </c>
+      <c r="I5" s="62">
+        <v>0.63347457627118597</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.46186440677966101</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.49788135593220301</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="D6" s="13">
+        <v>0.60593220338983</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0.64194915254237295</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.41525423728813599</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0.60805084745762705</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0.68644067796610198</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.59533898305084798</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.40042372881355898</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.519067796610169</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1832,14 +3397,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="D7" s="13">
+        <v>0.47881355932203401</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0.62076271186440701</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.51059322033898302</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0.68644067796610198</v>
+      </c>
+      <c r="H7" s="62">
+        <v>0.61016949152542399</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.55508474576271205</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.50423728813559299</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.59745762711864403</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1847,14 +3428,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="D8" s="13">
+        <v>0.54661016949152597</v>
+      </c>
+      <c r="E8" s="62">
+        <v>0.60805084745762705</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.54237288135593198</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.59110169491525399</v>
+      </c>
+      <c r="H8" s="62">
+        <v>0.59745762711864403</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.49152542372881403</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.56567796610169496</v>
+      </c>
+      <c r="K8" s="62">
+        <v>0.60381355932203395</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1866,28 +3463,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="D9" s="13">
+        <v>0.480932203389831</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.43220338983050799</v>
+      </c>
+      <c r="F9" s="62">
+        <v>0.56991525423728795</v>
+      </c>
+      <c r="G9" s="62">
+        <v>0.72033898305084698</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.552966101694915</v>
+      </c>
+      <c r="I9" s="62">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.47881355932203401</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.50847457627118597</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="D10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.77754237288135597</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.47457627118644102</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.51059322033898302</v>
+      </c>
+      <c r="H10" s="62">
+        <v>0.56355932203389802</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0.62288135593220295</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.52118644067796605</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1897,14 +3526,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="D11" s="13">
+        <v>0.49788135593220301</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0.61864406779660996</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.57415254237288105</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.60381355932203395</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0.677966101694915</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.59110169491525399</v>
+      </c>
+      <c r="K11" s="62">
+        <v>0.64194915254237295</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1912,14 +3557,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="D12" s="13">
+        <v>0.46822033898305099</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0.65466101694915302</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.50211864406779705</v>
+      </c>
+      <c r="G12" s="62">
+        <v>0.69279661016949201</v>
+      </c>
+      <c r="H12" s="62">
+        <v>0.67161016949152597</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.61440677966101698</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.40466101694915302</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.61652542372881403</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1931,28 +3592,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="D13" s="13">
+        <v>0.552966101694915</v>
+      </c>
+      <c r="E13" s="62">
+        <v>0.65466101694915302</v>
+      </c>
+      <c r="F13" s="62">
+        <v>0.68855932203389802</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.53601694915254205</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.64830508474576298</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.62711864406779705</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.61016949152542399</v>
+      </c>
+      <c r="K13" s="62">
+        <v>0.73093220338983</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="D14" s="13">
+        <v>0.60169491525423702</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.63559322033898302</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.59745762711864403</v>
+      </c>
+      <c r="G14" s="62">
+        <v>0.64618644067796605</v>
+      </c>
+      <c r="H14" s="62">
+        <v>0.73516949152542399</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.63771186440677996</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.47245762711864397</v>
+      </c>
+      <c r="K14" s="62">
+        <v>0.64194915254237295</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1962,14 +3655,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
+      <c r="D15" s="13">
+        <v>0.47245762711864397</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.11440677966101701</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.47457627118644102</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.150423728813559</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.46822033898305099</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.24364406779660999</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.11440677966101701</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.34957627118644102</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1977,14 +3686,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="D16" s="13">
+        <v>0.34745762711864397</v>
+      </c>
+      <c r="E16" s="13">
+        <v>9.5338983050847495E-2</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.63559322033898302</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.194915254237288</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.38983050847457601</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.38771186440678002</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.36228813559321998</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.30720338983050899</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1996,28 +3721,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
+      <c r="D17" s="62">
+        <v>0.64830508474576298</v>
+      </c>
+      <c r="E17" s="62">
+        <v>0.63347457627118597</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.61652542372881403</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.61440677966101698</v>
+      </c>
+      <c r="H17" s="62">
+        <v>0.63347457627118597</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.58474576271186396</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.552966101694915</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.60805084745762705</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
+      <c r="D18" s="13">
+        <v>0.60593220338983</v>
+      </c>
+      <c r="E18" s="62">
+        <v>0.644067796610169</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.49576271186440701</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.60169491525423702</v>
+      </c>
+      <c r="H18" s="62">
+        <v>0.62076271186440701</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.391949152542373</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.572033898305085</v>
+      </c>
+      <c r="K18" s="62">
+        <v>0.66313559322033899</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2027,14 +3784,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
+      <c r="D19" s="13">
+        <v>0.62288135593220295</v>
+      </c>
+      <c r="E19" s="62">
+        <v>0.64830508474576298</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.59957627118644097</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.59957627118644097</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0.66949152542372903</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.38347457627118597</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.43432203389830498</v>
+      </c>
+      <c r="K19" s="62">
+        <v>0.65042372881355903</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2042,14 +3815,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="D20" s="62">
+        <v>0.61016949152542399</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.44915254237288099</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.55720338983050799</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.49152542372881403</v>
+      </c>
+      <c r="H20" s="62">
+        <v>0.62288135593220295</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.40889830508474601</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.46610169491525399</v>
+      </c>
+      <c r="K20" s="62">
+        <v>0.61016949152542399</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -2237,7 +4026,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,19 +4044,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2315,28 +4104,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
+      <c r="D5" s="46">
+        <v>0.86016949152542399</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.894067796610169</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.63559322033898302</v>
+      </c>
+      <c r="G5" s="60">
+        <v>0.93644067796610198</v>
+      </c>
+      <c r="H5" s="60">
+        <v>0.93220338983050799</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.72457627118644097</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.71610169491525399</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0.85169491525423702</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
+      <c r="D6" s="48">
+        <v>0.77966101694915302</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.62711864406779705</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.93220338983050799</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.72881355932203395</v>
+      </c>
+      <c r="J6" s="62">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="K6" s="63">
+        <v>0.94491525423728795</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2346,14 +4167,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
+      <c r="D7" s="48">
+        <v>0.76271186440677996</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.83050847457627097</v>
+      </c>
+      <c r="F7" s="62">
+        <v>0.86864406779660996</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0.91949152542372903</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.77542372881355903</v>
+      </c>
+      <c r="I7" s="62">
+        <v>0.95338983050847503</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.70762711864406802</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.84322033898305104</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -2361,14 +4198,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
+      <c r="D8" s="49">
+        <v>0.83050847457627097</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="F8" s="65">
+        <v>0.94067796610169496</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.78813559322033899</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="I8" s="65">
+        <v>0.94067796610169496</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.79237288135593198</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0.90677966101694896</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2380,28 +4233,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
+      <c r="D9" s="51">
+        <v>0.83474576271186396</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.61016949152542399</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.76694915254237295</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.76694915254237295</v>
+      </c>
+      <c r="I9" s="66">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="J9" s="52">
+        <v>0.69915254237288105</v>
+      </c>
+      <c r="K9" s="67">
+        <v>0.855932203389831</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
+      <c r="D10" s="48">
+        <v>0.83898305084745795</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.927966101694915</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.91101694915254205</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.92372881355932202</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.80508474576271205</v>
+      </c>
+      <c r="I10" s="62">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.86864406779660996</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -2411,14 +4296,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="D11" s="48">
+        <v>0.80932203389830504</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0.83898305084745795</v>
+      </c>
+      <c r="F11" s="62">
+        <v>0.822033898305085</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.78389830508474601</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.85169491525423702</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.81779661016949201</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.76694915254237295</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -2426,14 +4327,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="D12" s="49">
+        <v>0.81355932203389802</v>
+      </c>
+      <c r="E12" s="65">
+        <v>0.88559322033898302</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.77542372881355903</v>
+      </c>
+      <c r="G12" s="65">
+        <v>0.93644067796610198</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.86016949152542399</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.85169491525423702</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.70338983050847503</v>
+      </c>
+      <c r="K12" s="71">
+        <v>0.95762711864406802</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2445,28 +4362,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
+      <c r="D13" s="68">
+        <v>0.83050847457627097</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.80508474576271205</v>
+      </c>
+      <c r="F13" s="66">
+        <v>0.855932203389831</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0.68644067796610198</v>
+      </c>
+      <c r="H13" s="66">
+        <v>0.86864406779660996</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.76271186440677996</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0.72033898305084698</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.81779661016949201</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
+      <c r="D14" s="69">
+        <v>0.90254237288135597</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.81355932203389802</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.77118644067796605</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.77542372881355903</v>
+      </c>
+      <c r="H14" s="62">
+        <v>0.91525423728813604</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.86864406779660996</v>
+      </c>
+      <c r="J14" s="62">
+        <v>0.85169491525423702</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.83474576271186396</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2476,14 +4425,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
+      <c r="D15" s="48">
+        <v>0.63135593220339004</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.62711864406779705</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.68644067796610198</v>
+      </c>
+      <c r="G15" s="62">
+        <v>0.87288135593220295</v>
+      </c>
+      <c r="H15" s="62">
+        <v>0.86016949152542399</v>
+      </c>
+      <c r="I15" s="62">
+        <v>0.75847457627118597</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.427966101694915</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.71610169491525399</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2491,14 +4456,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
+      <c r="D16" s="49">
+        <v>0.59322033898305104</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.63559322033898302</v>
+      </c>
+      <c r="F16" s="65">
+        <v>0.75423728813559299</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.58050847457627097</v>
+      </c>
+      <c r="H16" s="65">
+        <v>0.78389830508474601</v>
+      </c>
+      <c r="I16" s="65">
+        <v>0.86440677966101698</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.61440677966101698</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.58050847457627097</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2510,28 +4491,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
+      <c r="D17" s="51">
+        <v>0.69491525423728795</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.79237288135593198</v>
+      </c>
+      <c r="F17" s="66">
+        <v>0.82627118644067798</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0.68220338983050799</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.72881355932203395</v>
+      </c>
+      <c r="I17" s="66">
+        <v>0.86016949152542399</v>
+      </c>
+      <c r="J17" s="66">
+        <v>0.80932203389830504</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0.67372881355932202</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
+      <c r="D18" s="48">
+        <v>0.73305084745762705</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.78389830508474601</v>
+      </c>
+      <c r="F18" s="62">
+        <v>0.88559322033898302</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.70338983050847503</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.77542372881355903</v>
+      </c>
+      <c r="I18" s="62">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="J18" s="62">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.68644067796610198</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2541,14 +4554,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
+      <c r="D19" s="48">
+        <v>0.85169491525423702</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.822033898305085</v>
+      </c>
+      <c r="F19" s="62">
+        <v>0.855932203389831</v>
+      </c>
+      <c r="G19" s="62">
+        <v>0.90254237288135597</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0.88983050847457601</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.63135593220339004</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.66949152542372903</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.77542372881355903</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2556,14 +4585,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
+      <c r="D20" s="49">
+        <v>0.79237288135593198</v>
+      </c>
+      <c r="E20" s="65">
+        <v>0.927966101694915</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.855932203389831</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.86016949152542399</v>
+      </c>
+      <c r="H20" s="65">
+        <v>0.93220338983050799</v>
+      </c>
+      <c r="I20" s="65">
+        <v>0.94491525423728795</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.58050847457627097</v>
+      </c>
+      <c r="K20" s="50">
+        <v>0.70338983050847503</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -2927,19 +4972,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2987,28 +5032,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
+      <c r="D5" s="91">
+        <v>6</v>
+      </c>
+      <c r="E5" s="92">
+        <v>12</v>
+      </c>
+      <c r="F5" s="27">
+        <v>18</v>
+      </c>
+      <c r="G5" s="92">
+        <v>10</v>
+      </c>
+      <c r="H5" s="92">
+        <v>12</v>
+      </c>
+      <c r="I5" s="27">
+        <v>46</v>
+      </c>
+      <c r="J5" s="27">
+        <v>8</v>
+      </c>
+      <c r="K5" s="93">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="D6" s="40">
+        <v>6</v>
+      </c>
+      <c r="E6" s="94">
+        <v>4</v>
+      </c>
+      <c r="F6" s="29">
+        <v>14</v>
+      </c>
+      <c r="G6" s="29">
+        <v>16</v>
+      </c>
+      <c r="H6" s="94">
+        <v>12</v>
+      </c>
+      <c r="I6" s="29">
+        <v>44</v>
+      </c>
+      <c r="J6" s="94">
+        <v>6</v>
+      </c>
+      <c r="K6" s="95">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3018,14 +5095,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
+      <c r="D7" s="40">
+        <v>10</v>
+      </c>
+      <c r="E7" s="29">
+        <v>10</v>
+      </c>
+      <c r="F7" s="94">
+        <v>7</v>
+      </c>
+      <c r="G7" s="94">
+        <v>7</v>
+      </c>
+      <c r="H7" s="29">
+        <v>11</v>
+      </c>
+      <c r="I7" s="94">
+        <v>19</v>
+      </c>
+      <c r="J7" s="29">
+        <v>14</v>
+      </c>
+      <c r="K7" s="42">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -3033,14 +5126,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+      <c r="D8" s="41">
+        <v>9</v>
+      </c>
+      <c r="E8" s="96">
+        <v>6</v>
+      </c>
+      <c r="F8" s="96">
+        <v>4</v>
+      </c>
+      <c r="G8" s="45">
+        <v>20</v>
+      </c>
+      <c r="H8" s="96">
+        <v>5</v>
+      </c>
+      <c r="I8" s="96">
+        <v>20</v>
+      </c>
+      <c r="J8" s="45">
+        <v>3</v>
+      </c>
+      <c r="K8" s="97">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3052,28 +5161,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="D9" s="98">
+        <v>11</v>
+      </c>
+      <c r="E9" s="37">
+        <v>17</v>
+      </c>
+      <c r="F9" s="37">
+        <v>10</v>
+      </c>
+      <c r="G9" s="99">
+        <v>5</v>
+      </c>
+      <c r="H9" s="37">
+        <v>10</v>
+      </c>
+      <c r="I9" s="99">
+        <v>1</v>
+      </c>
+      <c r="J9" s="37">
+        <v>7</v>
+      </c>
+      <c r="K9" s="100">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
+      <c r="D10" s="40">
+        <v>4</v>
+      </c>
+      <c r="E10" s="94">
+        <v>9</v>
+      </c>
+      <c r="F10" s="29">
+        <v>4</v>
+      </c>
+      <c r="G10" s="29">
+        <v>12</v>
+      </c>
+      <c r="H10" s="29">
+        <v>23</v>
+      </c>
+      <c r="I10" s="94">
+        <v>1</v>
+      </c>
+      <c r="J10" s="94">
+        <v>4</v>
+      </c>
+      <c r="K10" s="42">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3083,14 +5224,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
+      <c r="D11" s="40">
+        <v>6</v>
+      </c>
+      <c r="E11" s="94">
+        <v>4</v>
+      </c>
+      <c r="F11" s="94">
+        <v>4</v>
+      </c>
+      <c r="G11" s="29">
+        <v>13</v>
+      </c>
+      <c r="H11" s="94">
+        <v>5</v>
+      </c>
+      <c r="I11" s="29">
+        <v>2</v>
+      </c>
+      <c r="J11" s="29">
+        <v>6</v>
+      </c>
+      <c r="K11" s="42">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -3098,14 +5255,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
+      <c r="D12" s="41">
+        <v>4</v>
+      </c>
+      <c r="E12" s="96">
+        <v>6</v>
+      </c>
+      <c r="F12" s="45">
+        <v>5</v>
+      </c>
+      <c r="G12" s="96">
+        <v>8</v>
+      </c>
+      <c r="H12" s="45">
+        <v>3</v>
+      </c>
+      <c r="I12" s="45">
+        <v>2</v>
+      </c>
+      <c r="J12" s="45">
+        <v>6</v>
+      </c>
+      <c r="K12" s="101">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3117,28 +5290,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="102">
+        <v>6</v>
+      </c>
+      <c r="E13" s="37">
+        <v>5</v>
+      </c>
+      <c r="F13" s="99">
+        <v>6</v>
+      </c>
+      <c r="G13" s="37">
+        <v>14</v>
+      </c>
+      <c r="H13" s="99">
+        <v>6</v>
+      </c>
+      <c r="I13" s="37">
+        <v>7</v>
+      </c>
+      <c r="J13" s="37">
+        <v>8</v>
+      </c>
+      <c r="K13" s="38">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
+      <c r="D14" s="103">
+        <v>12</v>
+      </c>
+      <c r="E14" s="29">
+        <v>7</v>
+      </c>
+      <c r="F14" s="29">
+        <v>6</v>
+      </c>
+      <c r="G14" s="29">
+        <v>21</v>
+      </c>
+      <c r="H14" s="94">
+        <v>4</v>
+      </c>
+      <c r="I14" s="29">
+        <v>5</v>
+      </c>
+      <c r="J14" s="94">
+        <v>4</v>
+      </c>
+      <c r="K14" s="42">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3148,14 +5353,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
+      <c r="D15" s="40">
+        <v>2</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2</v>
+      </c>
+      <c r="F15" s="29">
+        <v>2</v>
+      </c>
+      <c r="G15" s="94">
+        <v>2</v>
+      </c>
+      <c r="H15" s="94">
+        <v>2</v>
+      </c>
+      <c r="I15" s="94">
+        <v>2</v>
+      </c>
+      <c r="J15" s="29">
+        <v>2</v>
+      </c>
+      <c r="K15" s="42">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3163,14 +5384,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
+      <c r="D16" s="41">
+        <v>2</v>
+      </c>
+      <c r="E16" s="45">
+        <v>2</v>
+      </c>
+      <c r="F16" s="96">
+        <v>5</v>
+      </c>
+      <c r="G16" s="45">
+        <v>2</v>
+      </c>
+      <c r="H16" s="96">
+        <v>2</v>
+      </c>
+      <c r="I16" s="96">
+        <v>2</v>
+      </c>
+      <c r="J16" s="45">
+        <v>2</v>
+      </c>
+      <c r="K16" s="97">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3182,28 +5419,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
+      <c r="D17" s="98">
+        <v>46</v>
+      </c>
+      <c r="E17" s="37">
+        <v>46</v>
+      </c>
+      <c r="F17" s="99">
+        <v>9</v>
+      </c>
+      <c r="G17" s="37">
+        <v>27</v>
+      </c>
+      <c r="H17" s="37">
+        <v>45</v>
+      </c>
+      <c r="I17" s="99">
+        <v>3</v>
+      </c>
+      <c r="J17" s="99">
+        <v>13</v>
+      </c>
+      <c r="K17" s="38">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
+      <c r="D18" s="40">
+        <v>46</v>
+      </c>
+      <c r="E18" s="29">
+        <v>19</v>
+      </c>
+      <c r="F18" s="94">
+        <v>4</v>
+      </c>
+      <c r="G18" s="29">
+        <v>30</v>
+      </c>
+      <c r="H18" s="29">
+        <v>22</v>
+      </c>
+      <c r="I18" s="94">
+        <v>4</v>
+      </c>
+      <c r="J18" s="94">
+        <v>8</v>
+      </c>
+      <c r="K18" s="42">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3213,14 +5482,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
+      <c r="D19" s="40">
+        <v>8</v>
+      </c>
+      <c r="E19" s="29">
+        <v>17</v>
+      </c>
+      <c r="F19" s="94">
+        <v>4</v>
+      </c>
+      <c r="G19" s="94">
+        <v>4</v>
+      </c>
+      <c r="H19" s="94">
+        <v>7</v>
+      </c>
+      <c r="I19" s="29">
+        <v>24</v>
+      </c>
+      <c r="J19" s="29">
+        <v>7</v>
+      </c>
+      <c r="K19" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3228,14 +5513,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="D20" s="41">
+        <v>14</v>
+      </c>
+      <c r="E20" s="96">
+        <v>7</v>
+      </c>
+      <c r="F20" s="45">
+        <v>6</v>
+      </c>
+      <c r="G20" s="45">
+        <v>12</v>
+      </c>
+      <c r="H20" s="96">
+        <v>6</v>
+      </c>
+      <c r="I20" s="96">
+        <v>7</v>
+      </c>
+      <c r="J20" s="45">
+        <v>17</v>
+      </c>
+      <c r="K20" s="97">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -3423,7 +5724,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,19 +5742,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3501,28 +5802,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
+      <c r="D5" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="E5" s="74">
+        <v>6.5</v>
+      </c>
+      <c r="F5" s="75">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G5" s="74">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H5" s="74">
+        <v>10.6</v>
+      </c>
+      <c r="I5" s="75">
+        <v>30.7</v>
+      </c>
+      <c r="J5" s="75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K5" s="76">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="D6" s="77">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E6" s="78">
+        <v>11.4</v>
+      </c>
+      <c r="F6" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>11.7</v>
+      </c>
+      <c r="H6" s="78">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I6" s="19">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J6" s="78">
+        <v>5</v>
+      </c>
+      <c r="K6" s="79">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3532,14 +5865,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
+      <c r="D7" s="77">
+        <v>6.3</v>
+      </c>
+      <c r="E7" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="F7" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="G7" s="78">
+        <v>9.9</v>
+      </c>
+      <c r="H7" s="19">
+        <v>8.4</v>
+      </c>
+      <c r="I7" s="78">
+        <v>15.6</v>
+      </c>
+      <c r="J7" s="19">
+        <v>7.9</v>
+      </c>
+      <c r="K7" s="80">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -3547,14 +5896,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+      <c r="D8" s="81">
+        <v>9.4</v>
+      </c>
+      <c r="E8" s="82">
+        <v>11.4</v>
+      </c>
+      <c r="F8" s="82">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G8" s="44">
+        <v>10.8</v>
+      </c>
+      <c r="H8" s="82">
+        <v>14.6</v>
+      </c>
+      <c r="I8" s="82">
+        <v>18.7</v>
+      </c>
+      <c r="J8" s="44">
+        <v>9.5</v>
+      </c>
+      <c r="K8" s="83">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3566,28 +5931,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="D9" s="84">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E9" s="36">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F9" s="36">
+        <v>6.3</v>
+      </c>
+      <c r="G9" s="85">
+        <v>7.7</v>
+      </c>
+      <c r="H9" s="36">
+        <v>12.3</v>
+      </c>
+      <c r="I9" s="85">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="K9" s="86">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
+      <c r="D10" s="77">
+        <v>8</v>
+      </c>
+      <c r="E10" s="78">
+        <v>8.4</v>
+      </c>
+      <c r="F10" s="19">
+        <v>8</v>
+      </c>
+      <c r="G10" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="H10" s="19">
+        <v>12</v>
+      </c>
+      <c r="I10" s="78">
+        <v>1</v>
+      </c>
+      <c r="J10" s="78">
+        <v>8.4</v>
+      </c>
+      <c r="K10" s="80">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3597,14 +5994,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
+      <c r="D11" s="77">
+        <v>5.8</v>
+      </c>
+      <c r="E11" s="78">
+        <v>7.9</v>
+      </c>
+      <c r="F11" s="78">
+        <v>7</v>
+      </c>
+      <c r="G11" s="19">
+        <v>10.3</v>
+      </c>
+      <c r="H11" s="78">
+        <v>11.2</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="K11" s="80">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -3612,14 +6025,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
+      <c r="D12" s="81">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E12" s="82">
+        <v>9</v>
+      </c>
+      <c r="F12" s="44">
+        <v>5.5</v>
+      </c>
+      <c r="G12" s="82">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H12" s="44">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I12" s="44">
+        <v>2</v>
+      </c>
+      <c r="J12" s="44">
+        <v>5.2</v>
+      </c>
+      <c r="K12" s="87">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3631,28 +6060,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="88">
+        <v>7.7</v>
+      </c>
+      <c r="E13" s="36">
+        <v>12.4</v>
+      </c>
+      <c r="F13" s="85">
+        <v>7.9</v>
+      </c>
+      <c r="G13" s="36">
+        <v>9</v>
+      </c>
+      <c r="H13" s="85">
+        <v>7.8</v>
+      </c>
+      <c r="I13" s="36">
+        <v>6.9</v>
+      </c>
+      <c r="J13" s="36">
+        <v>7.8</v>
+      </c>
+      <c r="K13" s="89">
+        <v>9.1999999999999993</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
+      <c r="D14" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="E14" s="19">
+        <v>11.5</v>
+      </c>
+      <c r="F14" s="19">
+        <v>12.4</v>
+      </c>
+      <c r="G14" s="19">
+        <v>12.7</v>
+      </c>
+      <c r="H14" s="78">
+        <v>13</v>
+      </c>
+      <c r="I14" s="19">
+        <v>16.3</v>
+      </c>
+      <c r="J14" s="78">
+        <v>6</v>
+      </c>
+      <c r="K14" s="80">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3662,14 +6123,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
+      <c r="D15" s="77">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="78">
+        <v>2</v>
+      </c>
+      <c r="H15" s="78">
+        <v>2</v>
+      </c>
+      <c r="I15" s="78">
+        <v>2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="80">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3677,14 +6154,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
+      <c r="D16" s="81">
+        <v>2</v>
+      </c>
+      <c r="E16" s="44">
+        <v>2</v>
+      </c>
+      <c r="F16" s="82">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G16" s="44">
+        <v>2</v>
+      </c>
+      <c r="H16" s="82">
+        <v>2</v>
+      </c>
+      <c r="I16" s="82">
+        <v>2</v>
+      </c>
+      <c r="J16" s="44">
+        <v>2</v>
+      </c>
+      <c r="K16" s="83">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3696,28 +6189,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
+      <c r="D17" s="84">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E17" s="36">
+        <v>34.1</v>
+      </c>
+      <c r="F17" s="85">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G17" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H17" s="36">
+        <v>29.8</v>
+      </c>
+      <c r="I17" s="85">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J17" s="85">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K17" s="89">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
+      <c r="D18" s="77">
+        <v>34.9</v>
+      </c>
+      <c r="E18" s="19">
+        <v>29.4</v>
+      </c>
+      <c r="F18" s="78">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G18" s="19">
+        <v>27.5</v>
+      </c>
+      <c r="H18" s="19">
+        <v>31.1</v>
+      </c>
+      <c r="I18" s="78">
+        <v>6.6</v>
+      </c>
+      <c r="J18" s="78">
+        <v>7.6</v>
+      </c>
+      <c r="K18" s="80">
+        <v>31.3</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3727,14 +6252,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
+      <c r="D19" s="77">
+        <v>10.9</v>
+      </c>
+      <c r="E19" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="F19" s="78">
+        <v>9</v>
+      </c>
+      <c r="G19" s="78">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H19" s="78">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I19" s="19">
+        <v>8.4</v>
+      </c>
+      <c r="J19" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="K19" s="80">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3742,14 +6283,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="D20" s="81">
+        <v>10.9</v>
+      </c>
+      <c r="E20" s="82">
+        <v>7.9</v>
+      </c>
+      <c r="F20" s="44">
+        <v>10</v>
+      </c>
+      <c r="G20" s="44">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H20" s="82">
+        <v>10.5</v>
+      </c>
+      <c r="I20" s="82">
+        <v>5.7</v>
+      </c>
+      <c r="J20" s="44">
+        <v>9.6</v>
+      </c>
+      <c r="K20" s="83">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -3933,11 +6490,1147 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C6E2BB-CD7E-4FA9-A81B-F3147CB217E2}">
+  <dimension ref="A1:P53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="57"/>
+      <c r="M3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="57"/>
+      <c r="O3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="58"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="98">
+        <v>512</v>
+      </c>
+      <c r="E5" s="37">
+        <v>4</v>
+      </c>
+      <c r="F5" s="37">
+        <v>1</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="37">
+        <v>2</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1024</v>
+      </c>
+      <c r="J5" s="37">
+        <v>8</v>
+      </c>
+      <c r="K5" s="37">
+        <v>2.4</v>
+      </c>
+      <c r="L5" s="37">
+        <v>2</v>
+      </c>
+      <c r="M5" s="33">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N5" s="35">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="O5" s="37">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P5" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="C6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="40">
+        <v>64</v>
+      </c>
+      <c r="E6" s="29">
+        <v>16</v>
+      </c>
+      <c r="F6" s="29">
+        <v>512</v>
+      </c>
+      <c r="G6" s="29">
+        <v>8</v>
+      </c>
+      <c r="H6" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="I6" s="29">
+        <v>32</v>
+      </c>
+      <c r="J6" s="29">
+        <v>64</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="29">
+        <v>4</v>
+      </c>
+      <c r="M6" s="29">
+        <v>128</v>
+      </c>
+      <c r="N6" s="29">
+        <v>-512</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40">
+        <v>4</v>
+      </c>
+      <c r="E7" s="29">
+        <v>32</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2.4</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>4</v>
+      </c>
+      <c r="K7" s="19">
+        <v>3</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="29">
+        <v>2</v>
+      </c>
+      <c r="P7" s="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="40">
+        <v>16</v>
+      </c>
+      <c r="E8" s="29">
+        <v>64</v>
+      </c>
+      <c r="F8" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>16</v>
+      </c>
+      <c r="H8" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="I8" s="29">
+        <v>64</v>
+      </c>
+      <c r="J8" s="29">
+        <v>512</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="29">
+        <v>16</v>
+      </c>
+      <c r="M8" s="32">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N8" s="29">
+        <v>2</v>
+      </c>
+      <c r="O8" s="19">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P8" s="42">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40">
+        <v>8</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="29">
+        <v>4</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="L9" s="29">
+        <v>4</v>
+      </c>
+      <c r="M9" s="32">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="32">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P9" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="40">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <v>16</v>
+      </c>
+      <c r="G10" s="29">
+        <v>256</v>
+      </c>
+      <c r="H10" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>3</v>
+      </c>
+      <c r="L10" s="29">
+        <v>8</v>
+      </c>
+      <c r="M10" s="32">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N10" s="19">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O10" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <v>16</v>
+      </c>
+      <c r="F11" s="29">
+        <v>16</v>
+      </c>
+      <c r="G11" s="29">
+        <v>32</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="29">
+        <v>4</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="29">
+        <v>8</v>
+      </c>
+      <c r="M11" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="29">
+        <v>64</v>
+      </c>
+      <c r="P11" s="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="40">
+        <v>4</v>
+      </c>
+      <c r="E12" s="29">
+        <v>8</v>
+      </c>
+      <c r="F12" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="29">
+        <v>8</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
+      </c>
+      <c r="L12" s="29">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="M12" s="32">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O12" s="29">
+        <v>2</v>
+      </c>
+      <c r="P12" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40">
+        <v>2</v>
+      </c>
+      <c r="E13" s="29">
+        <v>32</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="29">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="29">
+        <v>4</v>
+      </c>
+      <c r="J13" s="29">
+        <v>128</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3</v>
+      </c>
+      <c r="L13" s="29">
+        <v>32</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="N13" s="13">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="P13" s="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="C14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>4</v>
+      </c>
+      <c r="F14" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G14" s="29">
+        <v>128</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="29">
+        <v>2</v>
+      </c>
+      <c r="J14" s="29">
+        <v>32</v>
+      </c>
+      <c r="K14" s="19">
+        <v>2</v>
+      </c>
+      <c r="L14" s="29">
+        <v>4</v>
+      </c>
+      <c r="M14" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N14" s="30">
+        <v>-0.25</v>
+      </c>
+      <c r="O14" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P14" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40">
+        <v>4</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="29">
+        <v>128</v>
+      </c>
+      <c r="J15" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="29">
+        <v>8</v>
+      </c>
+      <c r="N15" s="30">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="O15" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="P15" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="39">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>256</v>
+      </c>
+      <c r="F16" s="29">
+        <v>128</v>
+      </c>
+      <c r="G16" s="29">
+        <v>512</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="J16" s="29">
+        <v>2</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="L16" s="29">
+        <v>16</v>
+      </c>
+      <c r="M16" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N16" s="19">
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="O16" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="P16" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29">
+        <v>32</v>
+      </c>
+      <c r="G17" s="29">
+        <v>512</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="I17" s="29">
+        <v>8</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="L17" s="29">
+        <v>64</v>
+      </c>
+      <c r="M17" s="29">
+        <v>1</v>
+      </c>
+      <c r="N17" s="19">
+        <v>-2</v>
+      </c>
+      <c r="O17" s="29">
+        <v>8</v>
+      </c>
+      <c r="P17" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="39">
+        <v>0.125</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G18" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="29">
+        <v>2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="L18" s="29">
+        <v>64</v>
+      </c>
+      <c r="M18" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N18" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="P18" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+      <c r="D19" s="40">
+        <v>32</v>
+      </c>
+      <c r="E19" s="29">
+        <v>2</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G19" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="29">
+        <v>8</v>
+      </c>
+      <c r="J19" s="29">
+        <v>2</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L19" s="29">
+        <v>128</v>
+      </c>
+      <c r="M19" s="29">
+        <v>1</v>
+      </c>
+      <c r="N19" s="13">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="O19" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="41">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E20" s="45">
+        <v>4</v>
+      </c>
+      <c r="F20" s="45">
+        <v>4</v>
+      </c>
+      <c r="G20" s="45">
+        <v>128</v>
+      </c>
+      <c r="H20" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="I20" s="45">
+        <v>2</v>
+      </c>
+      <c r="J20" s="45">
+        <v>4</v>
+      </c>
+      <c r="K20" s="44">
+        <v>1</v>
+      </c>
+      <c r="L20" s="45">
+        <v>64</v>
+      </c>
+      <c r="M20" s="34">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N20" s="14">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O20" s="43">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P20" s="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,19 +7648,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4015,28 +7708,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
+      <c r="D5" s="91">
+        <v>1</v>
+      </c>
+      <c r="E5" s="92">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5" s="92">
+        <v>1</v>
+      </c>
+      <c r="H5" s="92">
+        <v>1</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27">
+        <v>1</v>
+      </c>
+      <c r="K5" s="93">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="D6" s="40">
+        <v>2</v>
+      </c>
+      <c r="E6" s="94">
+        <v>9</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>4</v>
+      </c>
+      <c r="H6" s="94">
+        <v>10</v>
+      </c>
+      <c r="I6" s="29">
+        <v>9</v>
+      </c>
+      <c r="J6" s="94">
+        <v>10</v>
+      </c>
+      <c r="K6" s="95">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4046,14 +7771,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
+      <c r="D7" s="40">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="94">
+        <v>1</v>
+      </c>
+      <c r="G7" s="94">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="94">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="42">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4061,14 +7802,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+      <c r="D8" s="41">
+        <v>3</v>
+      </c>
+      <c r="E8" s="96">
+        <v>7</v>
+      </c>
+      <c r="F8" s="96">
+        <v>9</v>
+      </c>
+      <c r="G8" s="45">
+        <v>2</v>
+      </c>
+      <c r="H8" s="96">
+        <v>10</v>
+      </c>
+      <c r="I8" s="96">
+        <v>4</v>
+      </c>
+      <c r="J8" s="45">
+        <v>5</v>
+      </c>
+      <c r="K8" s="97">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4080,28 +7837,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="D9" s="98">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37">
+        <v>1</v>
+      </c>
+      <c r="G9" s="99">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="99">
+        <v>1</v>
+      </c>
+      <c r="J9" s="37">
+        <v>1</v>
+      </c>
+      <c r="K9" s="100">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
+      <c r="D10" s="40">
+        <v>2</v>
+      </c>
+      <c r="E10" s="94">
+        <v>6</v>
+      </c>
+      <c r="F10" s="29">
+        <v>6</v>
+      </c>
+      <c r="G10" s="29">
+        <v>6</v>
+      </c>
+      <c r="H10" s="29">
+        <v>2</v>
+      </c>
+      <c r="I10" s="94">
+        <v>4</v>
+      </c>
+      <c r="J10" s="94">
+        <v>9</v>
+      </c>
+      <c r="K10" s="42">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4111,14 +7900,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
+      <c r="D11" s="40">
+        <v>1</v>
+      </c>
+      <c r="E11" s="94">
+        <v>1</v>
+      </c>
+      <c r="F11" s="94">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="94">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="42">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4126,14 +7931,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
+      <c r="D12" s="41">
+        <v>2</v>
+      </c>
+      <c r="E12" s="96">
+        <v>9</v>
+      </c>
+      <c r="F12" s="45">
+        <v>6</v>
+      </c>
+      <c r="G12" s="96">
+        <v>6</v>
+      </c>
+      <c r="H12" s="45">
+        <v>10</v>
+      </c>
+      <c r="I12" s="45">
+        <v>6</v>
+      </c>
+      <c r="J12" s="45">
+        <v>2</v>
+      </c>
+      <c r="K12" s="101">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4145,28 +7966,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="102">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37">
+        <v>1</v>
+      </c>
+      <c r="F13" s="99">
+        <v>1</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13" s="99">
+        <v>1</v>
+      </c>
+      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+      <c r="J13" s="37">
+        <v>1</v>
+      </c>
+      <c r="K13" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
+      <c r="D14" s="103">
+        <v>5</v>
+      </c>
+      <c r="E14" s="29">
+        <v>3</v>
+      </c>
+      <c r="F14" s="29">
+        <v>2</v>
+      </c>
+      <c r="G14" s="29">
+        <v>7</v>
+      </c>
+      <c r="H14" s="94">
+        <v>5</v>
+      </c>
+      <c r="I14" s="29">
+        <v>2</v>
+      </c>
+      <c r="J14" s="94">
+        <v>2</v>
+      </c>
+      <c r="K14" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4176,14 +8029,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
+      <c r="D15" s="40">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1</v>
+      </c>
+      <c r="G15" s="94">
+        <v>1</v>
+      </c>
+      <c r="H15" s="94">
+        <v>1</v>
+      </c>
+      <c r="I15" s="94">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="42">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4191,14 +8060,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
+      <c r="D16" s="41">
+        <v>6</v>
+      </c>
+      <c r="E16" s="45">
+        <v>5</v>
+      </c>
+      <c r="F16" s="96">
+        <v>2</v>
+      </c>
+      <c r="G16" s="45">
+        <v>5</v>
+      </c>
+      <c r="H16" s="96">
+        <v>6</v>
+      </c>
+      <c r="I16" s="96">
+        <v>5</v>
+      </c>
+      <c r="J16" s="45">
+        <v>8</v>
+      </c>
+      <c r="K16" s="97">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4210,28 +8095,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
+      <c r="D17" s="98">
+        <v>1</v>
+      </c>
+      <c r="E17" s="37">
+        <v>1</v>
+      </c>
+      <c r="F17" s="99">
+        <v>1</v>
+      </c>
+      <c r="G17" s="37">
+        <v>1</v>
+      </c>
+      <c r="H17" s="37">
+        <v>1</v>
+      </c>
+      <c r="I17" s="99">
+        <v>1</v>
+      </c>
+      <c r="J17" s="99">
+        <v>1</v>
+      </c>
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
+      <c r="D18" s="40">
+        <v>10</v>
+      </c>
+      <c r="E18" s="29">
+        <v>10</v>
+      </c>
+      <c r="F18" s="94">
+        <v>9</v>
+      </c>
+      <c r="G18" s="29">
+        <v>2</v>
+      </c>
+      <c r="H18" s="29">
+        <v>3</v>
+      </c>
+      <c r="I18" s="94">
+        <v>7</v>
+      </c>
+      <c r="J18" s="94">
+        <v>10</v>
+      </c>
+      <c r="K18" s="42">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4241,14 +8158,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
+      <c r="D19" s="40">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="94">
+        <v>1</v>
+      </c>
+      <c r="G19" s="94">
+        <v>1</v>
+      </c>
+      <c r="H19" s="94">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29">
+        <v>1</v>
+      </c>
+      <c r="K19" s="42">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4256,14 +8189,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="D20" s="41">
+        <v>4</v>
+      </c>
+      <c r="E20" s="96">
+        <v>9</v>
+      </c>
+      <c r="F20" s="45">
+        <v>6</v>
+      </c>
+      <c r="G20" s="45">
+        <v>5</v>
+      </c>
+      <c r="H20" s="96">
+        <v>10</v>
+      </c>
+      <c r="I20" s="96">
+        <v>7</v>
+      </c>
+      <c r="J20" s="45">
+        <v>2</v>
+      </c>
+      <c r="K20" s="97">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4446,12 +8395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4469,19 +8418,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4529,28 +8478,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
+      <c r="D5" s="73">
+        <v>1</v>
+      </c>
+      <c r="E5" s="74">
+        <v>1</v>
+      </c>
+      <c r="F5" s="75">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
+        <v>1</v>
+      </c>
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75">
+        <v>1</v>
+      </c>
+      <c r="J5" s="75">
+        <v>1</v>
+      </c>
+      <c r="K5" s="76">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="D6" s="77">
+        <v>3.2</v>
+      </c>
+      <c r="E6" s="78">
+        <v>6</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="H6" s="78">
+        <v>6.7</v>
+      </c>
+      <c r="I6" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="J6" s="78">
+        <v>5.5</v>
+      </c>
+      <c r="K6" s="79">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4560,14 +8541,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
+      <c r="D7" s="77">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="78">
+        <v>1</v>
+      </c>
+      <c r="G7" s="78">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="78">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="80">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4575,14 +8572,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+      <c r="D8" s="81">
+        <v>3.6</v>
+      </c>
+      <c r="E8" s="82">
+        <v>4.7</v>
+      </c>
+      <c r="F8" s="82">
+        <v>4.8</v>
+      </c>
+      <c r="G8" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="H8" s="82">
+        <v>5.7</v>
+      </c>
+      <c r="I8" s="82">
+        <v>5.5</v>
+      </c>
+      <c r="J8" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K8" s="83">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4594,28 +8607,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="D9" s="84">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1</v>
+      </c>
+      <c r="G9" s="85">
+        <v>1</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1</v>
+      </c>
+      <c r="I9" s="85">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1</v>
+      </c>
+      <c r="K9" s="86">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
+      <c r="D10" s="77">
+        <v>3</v>
+      </c>
+      <c r="E10" s="78">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F10" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H10" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="I10" s="78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J10" s="78">
+        <v>3.9</v>
+      </c>
+      <c r="K10" s="80">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4625,14 +8670,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
+      <c r="D11" s="77">
+        <v>1</v>
+      </c>
+      <c r="E11" s="78">
+        <v>1</v>
+      </c>
+      <c r="F11" s="78">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="78">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="80">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4640,14 +8701,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
+      <c r="D12" s="81">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E12" s="82">
+        <v>5.7</v>
+      </c>
+      <c r="F12" s="44">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G12" s="82">
+        <v>6.9</v>
+      </c>
+      <c r="H12" s="44">
+        <v>6</v>
+      </c>
+      <c r="I12" s="44">
+        <v>6.2</v>
+      </c>
+      <c r="J12" s="44">
+        <v>6.3</v>
+      </c>
+      <c r="K12" s="87">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4659,28 +8736,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="88">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="85">
+        <v>1</v>
+      </c>
+      <c r="G13" s="36">
+        <v>1</v>
+      </c>
+      <c r="H13" s="85">
+        <v>1</v>
+      </c>
+      <c r="I13" s="36">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="89">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
+      <c r="D14" s="90">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F14" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="H14" s="78">
+        <v>5.4</v>
+      </c>
+      <c r="I14" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J14" s="78">
+        <v>5</v>
+      </c>
+      <c r="K14" s="80">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4690,14 +8799,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
+      <c r="D15" s="77">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="78">
+        <v>1</v>
+      </c>
+      <c r="H15" s="78">
+        <v>1</v>
+      </c>
+      <c r="I15" s="78">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="80">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4705,14 +8830,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
+      <c r="D16" s="81">
+        <v>5.3</v>
+      </c>
+      <c r="E16" s="44">
+        <v>6</v>
+      </c>
+      <c r="F16" s="82">
+        <v>6.6</v>
+      </c>
+      <c r="G16" s="44">
+        <v>5.3</v>
+      </c>
+      <c r="H16" s="82">
+        <v>6</v>
+      </c>
+      <c r="I16" s="82">
+        <v>6.6</v>
+      </c>
+      <c r="J16" s="44">
+        <v>6.4</v>
+      </c>
+      <c r="K16" s="83">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4724,28 +8865,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
+      <c r="D17" s="84">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="85">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36">
+        <v>1</v>
+      </c>
+      <c r="I17" s="85">
+        <v>1</v>
+      </c>
+      <c r="J17" s="85">
+        <v>1</v>
+      </c>
+      <c r="K17" s="89">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
+      <c r="D18" s="77">
+        <v>5.5</v>
+      </c>
+      <c r="E18" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="F18" s="78">
+        <v>5.3</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H18" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="I18" s="78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J18" s="78">
+        <v>6.3</v>
+      </c>
+      <c r="K18" s="80">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4755,14 +8928,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
+      <c r="D19" s="77">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="78">
+        <v>1</v>
+      </c>
+      <c r="G19" s="78">
+        <v>1</v>
+      </c>
+      <c r="H19" s="78">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="80">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4770,14 +8959,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="D20" s="81">
+        <v>3.4</v>
+      </c>
+      <c r="E20" s="82">
+        <v>5.2</v>
+      </c>
+      <c r="F20" s="44">
+        <v>4.3</v>
+      </c>
+      <c r="G20" s="44">
+        <v>6</v>
+      </c>
+      <c r="H20" s="82">
+        <v>5.9</v>
+      </c>
+      <c r="I20" s="82">
+        <v>6.2</v>
+      </c>
+      <c r="J20" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K20" s="83">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4955,1141 +9160,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C6E2BB-CD7E-4FA9-A81B-F3147CB217E2}">
-  <dimension ref="A1:P53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="56"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="50">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="38">
-        <v>1</v>
-      </c>
-      <c r="H5" s="38">
-        <v>3</v>
-      </c>
-      <c r="I5" s="38">
-        <v>128</v>
-      </c>
-      <c r="J5" s="38">
-        <v>2</v>
-      </c>
-      <c r="K5" s="38">
-        <v>3</v>
-      </c>
-      <c r="L5" s="38">
-        <v>4</v>
-      </c>
-      <c r="M5" s="33">
-        <v>3.125E-2</v>
-      </c>
-      <c r="N5" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="38">
-        <v>2</v>
-      </c>
-      <c r="P5" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="41">
-        <v>4</v>
-      </c>
-      <c r="E6" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="F6" s="29">
-        <v>2</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="H6" s="29">
-        <v>3</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K6" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="L6" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="M6" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="N6" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O6" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="15">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="41">
-        <v>8</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="29">
-        <v>8</v>
-      </c>
-      <c r="H7" s="29">
-        <v>3</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="J7" s="32">
-        <v>3.125E-2</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="L7" s="29">
-        <v>16</v>
-      </c>
-      <c r="M7" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="N7" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O7" s="32">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="P7" s="44">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="41">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="F8" s="29">
-        <v>2</v>
-      </c>
-      <c r="G8" s="29">
-        <v>4</v>
-      </c>
-      <c r="H8" s="29">
-        <v>2</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="J8" s="32">
-        <v>3.125E-2</v>
-      </c>
-      <c r="K8" s="29">
-        <v>2</v>
-      </c>
-      <c r="L8" s="29">
-        <v>32</v>
-      </c>
-      <c r="M8" s="32">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="N8" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O8" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="P8" s="44">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="D9" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="29">
-        <v>4</v>
-      </c>
-      <c r="G9" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H9" s="29">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29">
-        <v>8</v>
-      </c>
-      <c r="J9" s="32">
-        <v>3.125E-2</v>
-      </c>
-      <c r="K9" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="L9" s="29">
-        <v>1024</v>
-      </c>
-      <c r="M9" s="32">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="N9" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="O9" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="P9" s="43">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E10" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F10" s="29">
-        <v>2</v>
-      </c>
-      <c r="G10" s="29">
-        <v>2</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="I10" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="J10" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="K10" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="L10" s="29">
-        <v>1</v>
-      </c>
-      <c r="M10" s="32">
-        <v>3.125E-2</v>
-      </c>
-      <c r="N10" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="29">
-        <v>8</v>
-      </c>
-      <c r="P10" s="44">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="41">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="I11" s="29">
-        <v>32</v>
-      </c>
-      <c r="J11" s="29">
-        <v>2</v>
-      </c>
-      <c r="K11" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="L11" s="29">
-        <v>256</v>
-      </c>
-      <c r="M11" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="N11" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="O11" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="P11" s="34">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="41">
-        <v>4</v>
-      </c>
-      <c r="E12" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="I12" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="J12" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="K12" s="29">
-        <v>1</v>
-      </c>
-      <c r="L12" s="29">
-        <v>256</v>
-      </c>
-      <c r="M12" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="O12" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="P12" s="43">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="41">
-        <v>2</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
-      </c>
-      <c r="F13" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="H13" s="19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I13" s="29">
-        <v>4</v>
-      </c>
-      <c r="J13" s="32">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="K13" s="19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L13" s="29">
-        <v>4</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="N13" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="O13" s="32">
-        <v>3.125E-2</v>
-      </c>
-      <c r="P13" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="C14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="41">
-        <v>8</v>
-      </c>
-      <c r="E14" s="32">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="F14" s="29">
-        <v>4</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="H14" s="29">
-        <v>2</v>
-      </c>
-      <c r="I14" s="32">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="J14" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="K14" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="L14" s="32">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="M14" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="N14" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="O14" s="29">
-        <v>2</v>
-      </c>
-      <c r="P14" s="15">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="22">
-        <v>1</v>
-      </c>
-      <c r="D15" s="41">
-        <v>8</v>
-      </c>
-      <c r="E15" s="29">
-        <v>1</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="G15" s="29">
-        <v>8</v>
-      </c>
-      <c r="H15" s="29">
-        <v>1</v>
-      </c>
-      <c r="I15" s="29">
-        <v>64</v>
-      </c>
-      <c r="J15" s="29">
-        <v>512</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="L15" s="32">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="M15" s="29">
-        <v>1</v>
-      </c>
-      <c r="N15" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="O15" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="P15" s="43">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E16" s="29">
-        <v>128</v>
-      </c>
-      <c r="F16" s="29">
-        <v>2</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="I16" s="29">
-        <v>1</v>
-      </c>
-      <c r="J16" s="32">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="K16" s="29">
-        <v>2</v>
-      </c>
-      <c r="L16" s="29">
-        <v>256</v>
-      </c>
-      <c r="M16" s="32">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="N16" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="O16" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="P16" s="45">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E17" s="29">
-        <v>4</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="G17" s="29">
-        <v>4</v>
-      </c>
-      <c r="H17" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="I17" s="29">
-        <v>32</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="29">
-        <v>1</v>
-      </c>
-      <c r="L17" s="29">
-        <v>512</v>
-      </c>
-      <c r="M17" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="N17" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="O17" s="29">
-        <v>1</v>
-      </c>
-      <c r="P17" s="45">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="C18" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E18" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="F18" s="29">
-        <v>2</v>
-      </c>
-      <c r="G18" s="29">
-        <v>2</v>
-      </c>
-      <c r="H18" s="29">
-        <v>3</v>
-      </c>
-      <c r="I18" s="29">
-        <v>8</v>
-      </c>
-      <c r="J18" s="32">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="K18" s="29">
-        <v>2</v>
-      </c>
-      <c r="L18" s="29">
-        <v>1024</v>
-      </c>
-      <c r="M18" s="32">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="N18" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="O18" s="29">
-        <v>4</v>
-      </c>
-      <c r="P18" s="15">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="22">
-        <v>1</v>
-      </c>
-      <c r="D19" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="29">
-        <v>2</v>
-      </c>
-      <c r="G19" s="29">
-        <v>8</v>
-      </c>
-      <c r="H19" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="J19" s="31">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="L19" s="29">
-        <v>256</v>
-      </c>
-      <c r="M19" s="32">
-        <v>3.125E-2</v>
-      </c>
-      <c r="N19" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="O19" s="29">
-        <v>1</v>
-      </c>
-      <c r="P19" s="44">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="42">
-        <v>8</v>
-      </c>
-      <c r="E20" s="35">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="F20" s="49">
-        <v>4</v>
-      </c>
-      <c r="G20" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="H20" s="48">
-        <v>2.8</v>
-      </c>
-      <c r="I20" s="35">
-        <v>3.125E-2</v>
-      </c>
-      <c r="J20" s="35">
-        <v>3.125E-2</v>
-      </c>
-      <c r="K20" s="48">
-        <v>0.4</v>
-      </c>
-      <c r="L20" s="49">
-        <v>256</v>
-      </c>
-      <c r="M20" s="35">
-        <v>3.125E-2</v>
-      </c>
-      <c r="N20" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O20" s="46">
-        <v>6.25E-2</v>
-      </c>
-      <c r="P20" s="51">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-    </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-    </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-    </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-    </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-    </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-    </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-    </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-    </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-    </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-    </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-    </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-    </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-    </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-    </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6100,7 +9170,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6110,69 +9180,76 @@
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="54" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="54" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="54" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="54" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="56"/>
+      <c r="S3" s="58"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6243,50 +9320,50 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="28">
-        <v>1.953125E-3</v>
+      <c r="D5" s="27">
+        <v>4</v>
       </c>
       <c r="E5" s="27">
         <v>1024.001</v>
       </c>
-      <c r="F5" s="28">
-        <v>1.5625E-2</v>
+      <c r="F5" s="72">
+        <v>0.25</v>
       </c>
       <c r="G5" s="27">
         <v>1024.001</v>
       </c>
-      <c r="H5" s="28">
-        <v>7.8125E-3</v>
+      <c r="H5" s="27">
+        <v>4</v>
       </c>
       <c r="I5" s="27">
         <v>1024.001</v>
       </c>
       <c r="J5" s="12">
-        <v>1.953125E-3</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="K5" s="27">
         <v>1024.001</v>
       </c>
       <c r="L5" s="12">
-        <v>1.953125E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M5" s="27">
         <v>1024.001</v>
       </c>
-      <c r="N5" s="12">
-        <v>-0.125</v>
+      <c r="N5" s="27">
+        <v>-16</v>
       </c>
       <c r="O5" s="27">
         <v>1024.001</v>
       </c>
       <c r="P5" s="28">
-        <v>1.953125E-3</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="Q5" s="27">
         <v>1024.001</v>
       </c>
-      <c r="R5" s="28">
-        <v>1.953125E-3</v>
+      <c r="R5" s="27">
+        <v>1</v>
       </c>
       <c r="S5" s="27">
         <v>1024.001</v>
@@ -6297,32 +9374,32 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="31">
-        <v>3.90625E-3</v>
+      <c r="D6" s="29">
+        <v>4</v>
       </c>
       <c r="E6" s="29">
         <v>1024.001</v>
       </c>
       <c r="F6" s="29">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="H6" s="30">
-        <v>0.25</v>
+      <c r="H6" s="13">
+        <v>0.125</v>
       </c>
       <c r="I6" s="29">
         <v>1024.001</v>
       </c>
       <c r="J6" s="13">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="L6" s="30">
-        <v>0.25</v>
+      <c r="L6" s="29">
+        <v>1.953125E-3</v>
       </c>
       <c r="M6" s="29">
         <v>1024.001</v>
@@ -6340,7 +9417,7 @@
         <v>1024.001</v>
       </c>
       <c r="R6" s="29">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="S6" s="29">
         <v>1024.001</v>
@@ -6354,50 +9431,50 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="31">
-        <v>1.953125E-3</v>
+      <c r="D7" s="29">
+        <v>2</v>
       </c>
       <c r="E7" s="29">
         <v>1024.001</v>
       </c>
       <c r="F7" s="31">
-        <v>6.25E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="G7" s="29">
         <v>1024.001</v>
       </c>
-      <c r="H7" s="31">
-        <v>7.8125E-3</v>
+      <c r="H7" s="29">
+        <v>128</v>
       </c>
       <c r="I7" s="29">
         <v>1024.001</v>
       </c>
-      <c r="J7" s="30">
-        <v>0.25</v>
+      <c r="J7" s="29">
+        <v>1</v>
       </c>
       <c r="K7" s="29">
         <v>1024.001</v>
       </c>
       <c r="L7" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="29">
         <v>1024.001</v>
       </c>
-      <c r="N7" s="31">
-        <v>-1.5625E-2</v>
+      <c r="N7" s="29">
+        <v>-1024</v>
       </c>
       <c r="O7" s="29">
         <v>1024.001</v>
       </c>
       <c r="P7" s="31">
-        <v>1.953125E-3</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="Q7" s="29">
         <v>1024.001</v>
       </c>
       <c r="R7" s="30">
-        <v>0.25</v>
+        <v>3.125E-2</v>
       </c>
       <c r="S7" s="29">
         <v>1024.001</v>
@@ -6409,14 +9486,14 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="31">
-        <v>3.90625E-3</v>
+      <c r="D8" s="29">
+        <v>2</v>
       </c>
       <c r="E8" s="29">
         <v>1024.001</v>
       </c>
       <c r="F8" s="30">
-        <v>0.25</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="G8" s="29">
         <v>1024.001</v>
@@ -6428,31 +9505,31 @@
         <v>1024.001</v>
       </c>
       <c r="J8" s="19">
-        <v>0.5</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K8" s="29">
         <v>1024.001</v>
       </c>
-      <c r="L8" s="19">
-        <v>0.5</v>
+      <c r="L8" s="29">
+        <v>1.953125E-3</v>
       </c>
       <c r="M8" s="29">
         <v>1024.001</v>
       </c>
       <c r="N8" s="13">
-        <v>-0.125</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="O8" s="29">
         <v>1024.001</v>
       </c>
       <c r="P8" s="31">
-        <v>1.953125E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q8" s="29">
         <v>1024.001</v>
       </c>
       <c r="R8" s="29">
-        <v>1</v>
+        <v>3.125E-2</v>
       </c>
       <c r="S8" s="29">
         <v>1024.001</v>
@@ -6469,52 +9546,52 @@
         <v>1</v>
       </c>
       <c r="D9" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
       </c>
       <c r="F9" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.99099999999999999</v>
+        <v>1E-4</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
       </c>
       <c r="H9" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1E-4</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
       </c>
       <c r="L9" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1</v>
       </c>
       <c r="N9" s="19">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="O9" s="29">
         <v>1</v>
       </c>
       <c r="P9" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.8</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>1</v>
       </c>
       <c r="R9" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="S9" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.8</v>
+      </c>
+      <c r="S9" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -6523,52 +9600,52 @@
         <v>12</v>
       </c>
       <c r="D10" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
       </c>
       <c r="F10" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
       </c>
       <c r="H10" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
       </c>
       <c r="J10" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="29">
+        <v>1</v>
       </c>
       <c r="L10" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="30">
         <v>0.01</v>
       </c>
-      <c r="M10" s="13">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N10" s="30">
-        <v>0.99</v>
-      </c>
       <c r="O10" s="29">
         <v>1</v>
       </c>
       <c r="P10" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="R10" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>1</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="S10" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -6580,37 +9657,37 @@
         <v>1</v>
       </c>
       <c r="D11" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
       </c>
       <c r="F11" s="30">
         <v>0.9</v>
       </c>
-      <c r="G11" s="13">
-        <v>0.99099999999999999</v>
+      <c r="G11" s="29">
+        <v>1</v>
       </c>
       <c r="H11" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J11" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
       </c>
       <c r="L11" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N11" s="19">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1</v>
+      </c>
+      <c r="N11" s="29">
+        <v>1E-4</v>
       </c>
       <c r="O11" s="29">
         <v>1</v>
@@ -6618,14 +9695,14 @@
       <c r="P11" s="30">
         <v>0.99</v>
       </c>
-      <c r="Q11" s="13">
-        <v>0.99099999999999999</v>
+      <c r="Q11" s="29">
+        <v>1</v>
       </c>
       <c r="R11" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="S11" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.99</v>
+      </c>
+      <c r="S11" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6635,52 +9712,52 @@
         <v>12</v>
       </c>
       <c r="D12" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
       </c>
       <c r="F12" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
       </c>
       <c r="H12" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
       </c>
       <c r="L12" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N12" s="19">
-        <v>0.8</v>
+        <v>0.6</v>
+      </c>
+      <c r="M12" s="29">
+        <v>1</v>
+      </c>
+      <c r="N12" s="29">
+        <v>1E-3</v>
       </c>
       <c r="O12" s="29">
         <v>1</v>
       </c>
       <c r="P12" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>0.99099999999999999</v>
+        <v>0.6</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>1</v>
       </c>
       <c r="R12" s="19">
         <v>0.1</v>
       </c>
-      <c r="S12" s="13">
-        <v>0.99099999999999999</v>
+      <c r="S12" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -6693,53 +9770,53 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="31">
-        <v>3.90625E-3</v>
+      <c r="D13" s="29">
+        <v>4</v>
       </c>
       <c r="E13" s="29">
-        <v>4.0009765625</v>
+        <v>128.0009765625</v>
       </c>
       <c r="F13" s="31">
         <v>1.5625E-2</v>
       </c>
       <c r="G13" s="29">
+        <v>0.1259765625</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0.5009765625</v>
+      </c>
+      <c r="L13" s="29">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0.2509765625</v>
+      </c>
+      <c r="N13" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O13" s="29">
         <v>128.0009765625</v>
       </c>
-      <c r="H13" s="31">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0.5009765625</v>
-      </c>
-      <c r="J13" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="K13" s="29">
+      <c r="P13" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="Q13" s="29">
         <v>1024.0009765625</v>
-      </c>
-      <c r="L13" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="13">
-        <v>1.0009765625</v>
-      </c>
-      <c r="N13" s="31">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O13" s="31">
-        <v>8.7890625E-3</v>
-      </c>
-      <c r="P13" s="31">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>1.66015625E-2</v>
       </c>
       <c r="R13" s="31">
         <v>3.90625E-3</v>
       </c>
       <c r="S13" s="13">
-        <v>1.0009765625</v>
+        <v>1.66015625E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -6747,53 +9824,53 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="31">
-        <v>7.8125E-3</v>
+      <c r="D14" s="29">
+        <v>1</v>
       </c>
       <c r="E14" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="H14" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="J14" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K14" s="29">
         <v>32.0009765625</v>
       </c>
-      <c r="F14" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="G14" s="31">
-        <v>8.7890625E-3</v>
-      </c>
-      <c r="H14" s="31">
+      <c r="L14" s="13">
         <v>3.125E-2</v>
-      </c>
-      <c r="I14" s="29">
-        <v>512.0009765625</v>
-      </c>
-      <c r="J14" s="31">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="K14" s="29">
-        <v>16.0009765625</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0.125</v>
       </c>
       <c r="M14" s="29">
         <v>512.0009765625</v>
       </c>
-      <c r="N14" s="31">
-        <v>3.90625E-3</v>
+      <c r="N14" s="30">
+        <v>0.25</v>
       </c>
       <c r="O14" s="29">
-        <v>1.0009765625</v>
-      </c>
-      <c r="P14" s="31">
-        <v>9.765625E-4</v>
+        <v>256.0009765625</v>
+      </c>
+      <c r="P14" s="30">
+        <v>0.25</v>
       </c>
       <c r="Q14" s="31">
-        <v>8.7890625E-3</v>
-      </c>
-      <c r="R14" s="31">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="S14" s="13">
-        <v>1.0009765625</v>
+        <v>0.2509765625</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="S14" s="29">
+        <v>8.0009765625</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -6805,52 +9882,52 @@
         <v>1</v>
       </c>
       <c r="D15" s="29">
-        <v>2</v>
+        <v>0.125</v>
       </c>
       <c r="E15" s="13">
-        <v>0.1259765625</v>
+        <v>4.8828125E-3</v>
       </c>
       <c r="F15" s="29">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="G15" s="29">
-        <v>32.0009765625</v>
+        <v>64.0009765625</v>
       </c>
       <c r="H15" s="29">
-        <v>256</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0.5009765625</v>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="I15" s="29">
+        <v>4.0009765625</v>
       </c>
       <c r="J15" s="29">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="K15" s="13">
         <v>0.2509765625</v>
       </c>
       <c r="L15" s="29">
-        <v>8</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="M15" s="29">
-        <v>64.0009765625</v>
+        <v>0.2509765625</v>
       </c>
       <c r="N15" s="29">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="O15" s="13">
-        <v>0.5009765625</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="P15" s="29">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="29">
-        <v>256.0009765625</v>
+        <v>1.0009765625</v>
       </c>
       <c r="R15" s="29">
         <v>512</v>
       </c>
       <c r="S15" s="13">
-        <v>2.0009765625</v>
+        <v>2.9296875E-3</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6860,52 +9937,52 @@
         <v>12</v>
       </c>
       <c r="D16" s="29">
-        <v>128</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="E16" s="29">
         <v>64.0009765625</v>
       </c>
       <c r="F16" s="29">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G16" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="I16" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="J16" s="29">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="K16" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="L16" s="29">
         <v>1024</v>
       </c>
-      <c r="G16" s="19">
+      <c r="M16" s="29">
         <v>0.5009765625</v>
       </c>
-      <c r="H16" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="I16" s="29">
-        <v>2.0009765625</v>
-      </c>
-      <c r="J16" s="29">
-        <v>4</v>
-      </c>
-      <c r="K16" s="29">
-        <v>1.0009765625</v>
-      </c>
-      <c r="L16" s="31">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="M16" s="29">
-        <v>64.0009765625</v>
-      </c>
       <c r="N16" s="29">
-        <v>2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="O16" s="31">
-        <v>2.9296875E-3</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="P16" s="13">
-        <v>9.765625E-4</v>
+        <v>0.125</v>
       </c>
       <c r="Q16" s="13">
         <v>0.1259765625</v>
       </c>
       <c r="R16" s="29">
-        <v>32</v>
-      </c>
-      <c r="S16" s="13">
-        <v>0.2509765625</v>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="S16" s="29">
+        <v>1.0009765625</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -6919,52 +9996,52 @@
         <v>1</v>
       </c>
       <c r="D17" s="29">
-        <v>16</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0.5009765625</v>
+      </c>
+      <c r="H17" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I17" s="29">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="J17" s="29">
+        <v>2</v>
+      </c>
+      <c r="K17" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M17" s="19">
+        <v>256.0009765625</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="29">
         <v>1024.0009765625</v>
       </c>
-      <c r="F17" s="29">
-        <v>16</v>
-      </c>
-      <c r="G17" s="29">
-        <v>256.0009765625</v>
-      </c>
-      <c r="H17" s="31">
+      <c r="P17" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="R17" s="29">
         <v>7.8125E-3</v>
       </c>
-      <c r="I17" s="29">
-        <v>64.0009765625</v>
-      </c>
-      <c r="J17" s="31">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="K17" s="31">
-        <v>6.34765625E-2</v>
-      </c>
-      <c r="L17" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="M17" s="19">
-        <v>0.5009765625</v>
-      </c>
-      <c r="N17" s="29">
-        <v>-128</v>
-      </c>
-      <c r="O17" s="13">
-        <v>-9.765625E-4</v>
-      </c>
-      <c r="P17" s="31">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>8.0009765625</v>
-      </c>
-      <c r="R17" s="29">
-        <v>8</v>
-      </c>
       <c r="S17" s="29">
-        <v>128.0009765625</v>
+        <v>4.0009765625</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -6973,52 +10050,52 @@
         <v>12</v>
       </c>
       <c r="D18" s="29">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E18" s="29">
-        <v>128.0009765625</v>
-      </c>
-      <c r="F18" s="31">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G18" s="19">
-        <v>0.5009765625</v>
+        <v>4.0009765625</v>
+      </c>
+      <c r="F18" s="29">
+        <v>1</v>
+      </c>
+      <c r="G18" s="29">
+        <v>8.0009765625</v>
       </c>
       <c r="H18" s="31">
-        <v>7.8125E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I18" s="29">
-        <v>2.0009765625</v>
+        <v>64.0009765625</v>
       </c>
       <c r="J18" s="29">
         <v>1</v>
       </c>
       <c r="K18" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L18" s="29">
+        <v>1</v>
+      </c>
+      <c r="M18" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="N18" s="29">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="13">
+        <v>-6.15234375E-2</v>
+      </c>
+      <c r="P18" s="29">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="29">
         <v>256.0009765625</v>
       </c>
-      <c r="L18" s="31">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M18" s="13">
-        <v>0.1259765625</v>
-      </c>
-      <c r="N18" s="31">
-        <v>-64</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0.1259765625</v>
-      </c>
-      <c r="P18" s="13">
-        <v>9.765625E-4</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>32.0009765625</v>
-      </c>
-      <c r="R18" s="31">
-        <v>1.953125E-3</v>
+      <c r="R18" s="13">
+        <v>0.125</v>
       </c>
       <c r="S18" s="29">
-        <v>16.0009765625</v>
+        <v>256.0009765625</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -7029,23 +10106,23 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="F19" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G19" s="29">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="H19" s="31">
         <v>6.25E-2</v>
       </c>
-      <c r="E19" s="29">
-        <v>32.0009765625</v>
-      </c>
-      <c r="F19" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="G19" s="29">
-        <v>64.0009765625</v>
-      </c>
-      <c r="H19" s="31">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="I19" s="31">
-        <v>3.22265625E-2</v>
+      <c r="I19" s="29">
+        <v>16.0009765625</v>
       </c>
       <c r="J19" s="31">
         <v>3.125E-2</v>
@@ -7053,29 +10130,29 @@
       <c r="K19" s="29">
         <v>32.0009765625</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N19" s="29">
+        <v>-64</v>
+      </c>
+      <c r="O19" s="29">
+        <v>-0.4990234375</v>
+      </c>
+      <c r="P19" s="31">
         <v>1.5625E-2</v>
       </c>
-      <c r="M19" s="29">
-        <v>16.0009765625</v>
-      </c>
-      <c r="N19" s="30">
-        <v>-0.25</v>
-      </c>
-      <c r="O19" s="29">
+      <c r="Q19" s="29">
         <v>32.0009765625</v>
       </c>
-      <c r="P19" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>8.0009765625</v>
-      </c>
-      <c r="R19" s="31">
-        <v>3.125E-2</v>
-      </c>
-      <c r="S19" s="13">
-        <v>0.5009765625</v>
+      <c r="R19" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="S19" s="29">
+        <v>1024.0009765625</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7084,53 +10161,53 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="31">
-        <v>1.5625E-2</v>
+      <c r="D20" s="19">
+        <v>0.5</v>
       </c>
       <c r="E20" s="29">
-        <v>32.0009765625</v>
-      </c>
-      <c r="F20" s="31">
+        <v>128.0009765625</v>
+      </c>
+      <c r="F20" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="H20" s="31">
         <v>1.953125E-3</v>
       </c>
-      <c r="G20" s="31">
-        <v>4.8828125E-3</v>
-      </c>
-      <c r="H20" s="31">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="I20" s="13">
-        <v>0.5009765625</v>
+      <c r="I20" s="29">
+        <v>8.0009765625</v>
       </c>
       <c r="J20" s="31">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="31">
-        <v>6.34765625E-2</v>
-      </c>
-      <c r="L20" s="31">
-        <v>1.5625E-2</v>
+      <c r="K20" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0.125</v>
       </c>
       <c r="M20" s="29">
         <v>1.0009765625</v>
       </c>
       <c r="N20" s="29">
-        <v>4</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="O20" s="29">
-        <v>8.0009765625</v>
+        <v>0.1259765625</v>
       </c>
       <c r="P20" s="13">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="Q20" s="13">
         <v>0.5009765625</v>
       </c>
       <c r="R20" s="31">
-        <v>1.953125E-3</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="S20" s="13">
-        <v>0.5009765625</v>
+        <v>3.22265625E-2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">

--- a/results_analysis/spark_motorFailure_01_hold2.xlsx
+++ b/results_analysis/spark_motorFailure_01_hold2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF06AF-75CD-433C-94F6-ECB91767F9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F507EF-74ED-4221-9853-42B9881C3C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -689,24 +689,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,6 +819,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1140,19 +1140,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="55">
         <v>0.57076271186440697</v>
       </c>
       <c r="E5" s="12">
@@ -1212,10 +1212,10 @@
       <c r="G5" s="12">
         <v>0.55127118644067796</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="54">
         <v>0.67711864406779698</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="54">
         <v>0.56652542372881398</v>
       </c>
       <c r="J5" s="12">
@@ -1233,16 +1233,16 @@
       <c r="D6" s="48">
         <v>0.55593220338983096</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="56">
         <v>0.63898305084745799</v>
       </c>
       <c r="F6" s="13">
         <v>0.44279661016949201</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="56">
         <v>0.63601694915254203</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="56">
         <v>0.68474576271186505</v>
       </c>
       <c r="I6" s="13">
@@ -1266,13 +1266,13 @@
       <c r="D7" s="48">
         <v>0.50889830508474598</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="56">
         <v>0.61906779661016997</v>
       </c>
       <c r="F7" s="13">
         <v>0.56313559322033901</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="56">
         <v>0.69449152542372905</v>
       </c>
       <c r="H7" s="13">
@@ -1284,7 +1284,7 @@
       <c r="J7" s="13">
         <v>0.519067796610169</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="57">
         <v>0.64788135593220297</v>
       </c>
     </row>
@@ -1303,10 +1303,10 @@
       <c r="F8" s="14">
         <v>0.57796610169491502</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="59">
         <v>0.615254237288136</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="59">
         <v>0.615254237288136</v>
       </c>
       <c r="I8" s="14">
@@ -1315,7 +1315,7 @@
       <c r="J8" s="14">
         <v>0.54110169491525395</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="58">
         <v>0.64788135593220297</v>
       </c>
     </row>
@@ -1338,13 +1338,13 @@
       <c r="F9" s="52">
         <v>0.55593220338982996</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="60">
         <v>0.677966101694915</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="60">
         <v>0.591525423728813</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="60">
         <v>0.58898305084745795</v>
       </c>
       <c r="J9" s="52">
@@ -1362,13 +1362,13 @@
       <c r="D10" s="48">
         <v>0.53220338983050897</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="56">
         <v>0.7</v>
       </c>
       <c r="F10" s="13">
         <v>0.54194915254237297</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="56">
         <v>0.60423728813559296</v>
       </c>
       <c r="H10" s="13">
@@ -1377,7 +1377,7 @@
       <c r="I10" s="13">
         <v>0.5</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="56">
         <v>0.61313559322033895</v>
       </c>
       <c r="K10" s="15">
@@ -1395,7 +1395,7 @@
       <c r="D11" s="48">
         <v>0.53008474576271203</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="56">
         <v>0.63262711864406795</v>
       </c>
       <c r="F11" s="13">
@@ -1404,7 +1404,7 @@
       <c r="G11" s="13">
         <v>0.59661016949152601</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="56">
         <v>0.66652542372881396</v>
       </c>
       <c r="I11" s="13">
@@ -1413,7 +1413,7 @@
       <c r="J11" s="13">
         <v>0.58771186440678003</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="57">
         <v>0.64449152542372901</v>
       </c>
     </row>
@@ -1432,10 +1432,10 @@
       <c r="F12" s="14">
         <v>0.51525423728813602</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="59">
         <v>0.69152542372881398</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="59">
         <v>0.67118644067796596</v>
       </c>
       <c r="I12" s="14">
@@ -1444,7 +1444,7 @@
       <c r="J12" s="14">
         <v>0.43644067796610198</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="58">
         <v>0.66567796610169505</v>
       </c>
     </row>
@@ -1461,10 +1461,10 @@
       <c r="D13" s="51">
         <v>0.58940677966101696</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="60">
         <v>0.66059322033898304</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="60">
         <v>0.66271186440677998</v>
       </c>
       <c r="G13" s="52">
@@ -1479,7 +1479,7 @@
       <c r="J13" s="52">
         <v>0.53220338983050897</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="61">
         <v>0.71525423728813597</v>
       </c>
     </row>
@@ -1497,13 +1497,13 @@
       <c r="F14" s="13">
         <v>0.60593220338983</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="56">
         <v>0.639406779661017</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="56">
         <v>0.72754237288135604</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="56">
         <v>0.66186440677966096</v>
       </c>
       <c r="J14" s="13">
@@ -1587,10 +1587,10 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="62">
         <v>0.63898305084745799</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="60">
         <v>0.60127118644067801</v>
       </c>
       <c r="F17" s="52">
@@ -1599,7 +1599,7 @@
       <c r="G17" s="52">
         <v>0.54406779661017002</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="60">
         <v>0.63813559322033897</v>
       </c>
       <c r="I17" s="52">
@@ -1620,7 +1620,7 @@
       <c r="D18" s="48">
         <v>0.57584745762711897</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="56">
         <v>0.62881355932203398</v>
       </c>
       <c r="F18" s="13">
@@ -1629,7 +1629,7 @@
       <c r="G18" s="13">
         <v>0.59661016949152601</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="56">
         <v>0.62118644067796602</v>
       </c>
       <c r="I18" s="13">
@@ -1638,7 +1638,7 @@
       <c r="J18" s="13">
         <v>0.581779661016949</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="57">
         <v>0.63220338983050905</v>
       </c>
     </row>
@@ -1650,10 +1650,10 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="63">
         <v>0.64957627118644101</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="56">
         <v>0.65635593220338995</v>
       </c>
       <c r="F19" s="13">
@@ -1662,7 +1662,7 @@
       <c r="G19" s="13">
         <v>0.62330508474576296</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="56">
         <v>0.68728813559322</v>
       </c>
       <c r="I19" s="13">
@@ -1681,7 +1681,7 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="64">
         <v>0.59830508474576305</v>
       </c>
       <c r="E20" s="14">
@@ -1693,7 +1693,7 @@
       <c r="G20" s="14">
         <v>0.48220338983050898</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="59">
         <v>0.63516949152542401</v>
       </c>
       <c r="I20" s="14">
@@ -1702,7 +1702,7 @@
       <c r="J20" s="14">
         <v>0.45169491525423699</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="58">
         <v>0.58728813559322102</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,19 +2061,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2133,16 +2133,16 @@
       <c r="D5" s="46">
         <v>0.18664172774256499</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="54">
         <v>0.24198875436352699</v>
       </c>
       <c r="F5" s="12">
         <v>0.21840504123526899</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="54">
         <v>0.31801388151511401</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="54">
         <v>0.24284501330296299</v>
       </c>
       <c r="I5" s="12">
@@ -2164,7 +2164,7 @@
       <c r="D6" s="48">
         <v>0.14397925308822601</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="56">
         <v>0</v>
       </c>
       <c r="F6" s="13">
@@ -2173,16 +2173,16 @@
       <c r="G6" s="13">
         <v>0.29903416291010898</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="56">
         <v>0</v>
       </c>
       <c r="I6" s="13">
         <v>0.28042340556128798</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="56">
         <v>0</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="57">
         <v>0</v>
       </c>
     </row>
@@ -2200,16 +2200,16 @@
       <c r="E7" s="13">
         <v>0.23243244186961501</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="56">
         <v>0.242397990713761</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="56">
         <v>0.19774264449513501</v>
       </c>
       <c r="H7" s="13">
         <v>0.214587102415222</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="56">
         <v>0.43296644640055598</v>
       </c>
       <c r="J7" s="13">
@@ -2228,19 +2228,19 @@
       <c r="D8" s="49">
         <v>0.30831281153691498</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="59">
         <v>0</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="59">
         <v>-1.5750172457760399E-2</v>
       </c>
       <c r="G8" s="14">
         <v>0.112126515927222</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="59">
         <v>0</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="59">
         <v>-1.5750172457760399E-2</v>
       </c>
       <c r="J8" s="14">
@@ -2269,19 +2269,19 @@
       <c r="F9" s="52">
         <v>0.170929726406608</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="60">
         <v>0</v>
       </c>
       <c r="H9" s="52">
         <v>0.20728360300044299</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="60">
         <v>0</v>
       </c>
       <c r="J9" s="52">
         <v>0.122377264840923</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="61">
         <v>0.181025240727621</v>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       <c r="D10" s="48">
         <v>0.20237651035613199</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="56">
         <v>0.28228478960537301</v>
       </c>
       <c r="F10" s="13">
@@ -2306,10 +2306,10 @@
       <c r="H10" s="13">
         <v>0.20513831824294901</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="56">
         <v>0</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="56">
         <v>0.18029025812603799</v>
       </c>
       <c r="K10" s="15">
@@ -2327,16 +2327,16 @@
       <c r="D11" s="48">
         <v>8.8937254286568804E-2</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="56">
         <v>0.24261405824419299</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="56">
         <v>0.14260197484571299</v>
       </c>
       <c r="G11" s="13">
         <v>0.29356037603061003</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="56">
         <v>0.31497559033758699</v>
       </c>
       <c r="I11" s="13">
@@ -2358,13 +2358,13 @@
       <c r="D12" s="49">
         <v>0.28851474779031</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="59">
         <v>-6.0632681467771898E-2</v>
       </c>
       <c r="F12" s="14">
         <v>-2.0206864987482E-2</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="59">
         <v>0.36682693471561201</v>
       </c>
       <c r="H12" s="14">
@@ -2376,7 +2376,7 @@
       <c r="J12" s="14">
         <v>8.9796719115644699E-2</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="65">
         <v>0.46996273462683502</v>
       </c>
     </row>
@@ -2390,19 +2390,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="62">
         <v>0.108281110360337</v>
       </c>
       <c r="E13" s="52">
         <v>-1.94800919059379E-3</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="60">
         <v>0.181025240727621</v>
       </c>
       <c r="G13" s="52">
         <v>7.9512890344336007E-2</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="60">
         <v>0.198589081855233</v>
       </c>
       <c r="I13" s="52">
@@ -2421,7 +2421,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="63">
         <v>0.15652170315115899</v>
       </c>
       <c r="E14" s="13">
@@ -2433,13 +2433,13 @@
       <c r="G14" s="13">
         <v>0.17797824652594299</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="56">
         <v>-4.2213418512696298E-2</v>
       </c>
       <c r="I14" s="13">
         <v>0.242397990713761</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="56">
         <v>0.25915604677278298</v>
       </c>
       <c r="K14" s="15">
@@ -2463,13 +2463,13 @@
       <c r="F15" s="13">
         <v>0.114425018494914</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="56">
         <v>0.10852891983742299</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="56">
         <v>-1.3534046664626801E-2</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="56">
         <v>5.0886209667510798E-2</v>
       </c>
       <c r="J15" s="13">
@@ -2491,16 +2491,16 @@
       <c r="E16" s="14">
         <v>8.4988635195994006E-2</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="59">
         <v>0.16084461444683401</v>
       </c>
       <c r="G16" s="14">
         <v>-0.147771113907152</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="59">
         <v>2.7481336382975501E-2</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="59">
         <v>4.5905875628054003E-2</v>
       </c>
       <c r="J16" s="14">
@@ -2526,7 +2526,7 @@
       <c r="E17" s="52">
         <v>0.26640533322093801</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="60">
         <v>5.9613193218119899E-2</v>
       </c>
       <c r="G17" s="52">
@@ -2535,10 +2535,10 @@
       <c r="H17" s="52">
         <v>0.28042340556128798</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="60">
         <v>-1.3534046664626801E-2</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="60">
         <v>0.24712883562437199</v>
       </c>
       <c r="K17" s="53">
@@ -2557,7 +2557,7 @@
       <c r="E18" s="13">
         <v>2.7481336382975501E-2</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="56">
         <v>0.178108054106489</v>
       </c>
       <c r="G18" s="13">
@@ -2566,10 +2566,10 @@
       <c r="H18" s="13">
         <v>6.2564262183385302E-2</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="56">
         <v>0</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="56">
         <v>0</v>
       </c>
       <c r="K18" s="15">
@@ -2590,13 +2590,13 @@
       <c r="E19" s="13">
         <v>0.18341183750748</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="56">
         <v>3.75908369338201E-2</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="56">
         <v>0.15652170315115899</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="56">
         <v>7.6401712948784006E-2</v>
       </c>
       <c r="I19" s="13">
@@ -2618,7 +2618,7 @@
       <c r="D20" s="49">
         <v>7.5169537753433005E-2</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="59">
         <v>0.22581329670237801</v>
       </c>
       <c r="F20" s="14">
@@ -2627,10 +2627,10 @@
       <c r="G20" s="14">
         <v>0.27117279621776402</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="59">
         <v>-2.7396930718156302E-2</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="59">
         <v>0</v>
       </c>
       <c r="J20" s="14">
@@ -2652,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1E589-1659-439B-B1DA-4F9E028A9755}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2664,19 +2664,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2736,16 +2736,16 @@
       <c r="D5" s="46">
         <v>0.57781753130590296</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="54">
         <v>0.61425302386400804</v>
       </c>
       <c r="F5" s="12">
         <v>0.48371998371998398</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="54">
         <v>0.65720925728672397</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="54">
         <v>0.61858585858585902</v>
       </c>
       <c r="I5" s="12">
@@ -2767,7 +2767,7 @@
       <c r="D6" s="48">
         <v>0.53002450980392202</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="56">
         <v>0.48583877995642699</v>
       </c>
       <c r="F6" s="13">
@@ -2776,16 +2776,16 @@
       <c r="G6" s="13">
         <v>0.64880952380952395</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="56">
         <v>0.48583877995642699</v>
       </c>
       <c r="I6" s="13">
         <v>0.54500542234004101</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="56">
         <v>0.48583877995642699</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="57">
         <v>0.48583877995642699</v>
       </c>
     </row>
@@ -2803,16 +2803,16 @@
       <c r="E7" s="13">
         <v>0.58178273967747696</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="56">
         <v>0.60340434759039396</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="56">
         <v>0.59874720357941802</v>
       </c>
       <c r="H7" s="13">
         <v>0.55018520516416702</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="56">
         <v>0.69838503543627295</v>
       </c>
       <c r="J7" s="13">
@@ -2831,19 +2831,19 @@
       <c r="D8" s="49">
         <v>0.60686323504914197</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="59">
         <v>0.48583877995642699</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="59">
         <v>0.48471615720523997</v>
       </c>
       <c r="G8" s="14">
         <v>0.52265372168284796</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="59">
         <v>0.48583877995642699</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="59">
         <v>0.48471615720523997</v>
       </c>
       <c r="J8" s="14">
@@ -2872,19 +2872,19 @@
       <c r="F9" s="52">
         <v>0.53321106196281498</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="60">
         <v>0.48583877995642699</v>
       </c>
       <c r="H9" s="52">
         <v>0.54409750272206803</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="60">
         <v>0.48583877995642699</v>
       </c>
       <c r="J9" s="52">
         <v>0.49062167502659998</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="61">
         <v>0.57391673746813898</v>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       <c r="D10" s="48">
         <v>0.57497630331753602</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="56">
         <v>0.64098434004474303</v>
       </c>
       <c r="F10" s="13">
@@ -2909,10 +2909,10 @@
       <c r="H10" s="13">
         <v>0.56084142394822001</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="56">
         <v>0.48583877995642699</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="56">
         <v>0.552443471918308</v>
       </c>
       <c r="K10" s="15">
@@ -2930,16 +2930,16 @@
       <c r="D11" s="48">
         <v>0.52177241410366104</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="56">
         <v>0.58937728937728895</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="56">
         <v>0.54615384615384599</v>
       </c>
       <c r="G11" s="13">
         <v>0.57725404797864499</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="56">
         <v>0.643545950970141</v>
       </c>
       <c r="I11" s="13">
@@ -2961,13 +2961,13 @@
       <c r="D12" s="49">
         <v>0.59150275373721495</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="59">
         <v>0.469662921348315</v>
       </c>
       <c r="F12" s="14">
         <v>0.47123229761149898</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="59">
         <v>0.68322147651006704</v>
       </c>
       <c r="H12" s="14">
@@ -2979,7 +2979,7 @@
       <c r="J12" s="14">
         <v>0.48342714196372699</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="65">
         <v>0.67653508771929804</v>
       </c>
     </row>
@@ -2993,19 +2993,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="62">
         <v>0.536163522012579</v>
       </c>
       <c r="E13" s="52">
         <v>0.48549763033175403</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="60">
         <v>0.57391673746813898</v>
       </c>
       <c r="G13" s="52">
         <v>0.47391251958067199</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="60">
         <v>0.58598834248203302</v>
       </c>
       <c r="I13" s="52">
@@ -3024,7 +3024,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="63">
         <v>0.57748890791624496</v>
       </c>
       <c r="E14" s="13">
@@ -3036,13 +3036,13 @@
       <c r="G14" s="13">
         <v>0.53904551317486604</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="56">
         <v>0.47787610619469001</v>
       </c>
       <c r="I14" s="13">
         <v>0.60340434759039396</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="56">
         <v>0.60148598446470802</v>
       </c>
       <c r="K14" s="15">
@@ -3066,13 +3066,13 @@
       <c r="F15" s="13">
         <v>0.48319128787878801</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="56">
         <v>0.54892966360856299</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="56">
         <v>0.49081399150048999</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="56">
         <v>0.49151389151389202</v>
       </c>
       <c r="J15" s="13">
@@ -3094,16 +3094,16 @@
       <c r="E16" s="14">
         <v>0.45440860215053802</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="59">
         <v>0.52472222222222198</v>
       </c>
       <c r="G16" s="14">
         <v>0.376477809506018</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="59">
         <v>0.49118579581483801</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="59">
         <v>0.518858307849134</v>
       </c>
       <c r="J16" s="14">
@@ -3129,7 +3129,7 @@
       <c r="E17" s="52">
         <v>0.57383453104846105</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="60">
         <v>0.51559449311639605</v>
       </c>
       <c r="G17" s="52">
@@ -3138,10 +3138,10 @@
       <c r="H17" s="52">
         <v>0.54500542234004101</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="60">
         <v>0.49081399150048999</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="60">
         <v>0.57640301543616101</v>
       </c>
       <c r="K17" s="53">
@@ -3160,7 +3160,7 @@
       <c r="E18" s="13">
         <v>0.49118579581483801</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="56">
         <v>0.583393265773129</v>
       </c>
       <c r="G18" s="13">
@@ -3169,10 +3169,10 @@
       <c r="H18" s="13">
         <v>0.50109688484703396</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="56">
         <v>0.48583877995642699</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="56">
         <v>0.48583877995642699</v>
       </c>
       <c r="K18" s="15">
@@ -3193,13 +3193,13 @@
       <c r="E19" s="13">
         <v>0.56087187666134997</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="56">
         <v>0.51346107203492597</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="56">
         <v>0.57748890791624496</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="56">
         <v>0.53725490196078396</v>
       </c>
       <c r="I19" s="13">
@@ -3221,7 +3221,7 @@
       <c r="D20" s="49">
         <v>0.51113929401817804</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="59">
         <v>0.61150382492495403</v>
       </c>
       <c r="F20" s="14">
@@ -3230,10 +3230,10 @@
       <c r="G20" s="14">
         <v>0.61011264080100103</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="59">
         <v>0.48245614035087703</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="59">
         <v>0.48583877995642699</v>
       </c>
       <c r="J20" s="14">
@@ -3274,19 +3274,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3343,13 +3343,13 @@
       <c r="F5" s="13">
         <v>0.51271186440677996</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="56">
         <v>0.52118644067796605</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="56">
         <v>0.70127118644067798</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="56">
         <v>0.63347457627118597</v>
       </c>
       <c r="J5" s="13">
@@ -3367,16 +3367,16 @@
       <c r="D6" s="13">
         <v>0.60593220338983</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="56">
         <v>0.64194915254237295</v>
       </c>
       <c r="F6" s="13">
         <v>0.41525423728813599</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="56">
         <v>0.60805084745762705</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="56">
         <v>0.68644067796610198</v>
       </c>
       <c r="I6" s="13">
@@ -3400,16 +3400,16 @@
       <c r="D7" s="13">
         <v>0.47881355932203401</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="56">
         <v>0.62076271186440701</v>
       </c>
       <c r="F7" s="13">
         <v>0.51059322033898302</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="56">
         <v>0.68644067796610198</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="56">
         <v>0.61016949152542399</v>
       </c>
       <c r="I7" s="13">
@@ -3431,7 +3431,7 @@
       <c r="D8" s="13">
         <v>0.54661016949152597</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="56">
         <v>0.60805084745762705</v>
       </c>
       <c r="F8" s="13">
@@ -3440,7 +3440,7 @@
       <c r="G8" s="13">
         <v>0.59110169491525399</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="56">
         <v>0.59745762711864403</v>
       </c>
       <c r="I8" s="13">
@@ -3449,7 +3449,7 @@
       <c r="J8" s="13">
         <v>0.56567796610169496</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="56">
         <v>0.60381355932203395</v>
       </c>
     </row>
@@ -3469,16 +3469,16 @@
       <c r="E9" s="13">
         <v>0.43220338983050799</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="56">
         <v>0.56991525423728795</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="56">
         <v>0.72033898305084698</v>
       </c>
       <c r="H9" s="13">
         <v>0.552966101694915</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="56">
         <v>0.94491525423728795</v>
       </c>
       <c r="J9" s="13">
@@ -3496,7 +3496,7 @@
       <c r="D10" s="13">
         <v>0.5</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="56">
         <v>0.77754237288135597</v>
       </c>
       <c r="F10" s="13">
@@ -3505,13 +3505,13 @@
       <c r="G10" s="13">
         <v>0.51059322033898302</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="56">
         <v>0.56355932203389802</v>
       </c>
       <c r="I10" s="13">
         <v>0.5</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="56">
         <v>0.62288135593220295</v>
       </c>
       <c r="K10" s="13">
@@ -3529,7 +3529,7 @@
       <c r="D11" s="13">
         <v>0.49788135593220301</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="56">
         <v>0.61864406779660996</v>
       </c>
       <c r="F11" s="13">
@@ -3538,7 +3538,7 @@
       <c r="G11" s="13">
         <v>0.60381355932203395</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="56">
         <v>0.677966101694915</v>
       </c>
       <c r="I11" s="13">
@@ -3547,7 +3547,7 @@
       <c r="J11" s="13">
         <v>0.59110169491525399</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="56">
         <v>0.64194915254237295</v>
       </c>
     </row>
@@ -3560,16 +3560,16 @@
       <c r="D12" s="13">
         <v>0.46822033898305099</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="56">
         <v>0.65466101694915302</v>
       </c>
       <c r="F12" s="13">
         <v>0.50211864406779705</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="56">
         <v>0.69279661016949201</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="56">
         <v>0.67161016949152597</v>
       </c>
       <c r="I12" s="13">
@@ -3595,10 +3595,10 @@
       <c r="D13" s="13">
         <v>0.552966101694915</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="56">
         <v>0.65466101694915302</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="56">
         <v>0.68855932203389802</v>
       </c>
       <c r="G13" s="13">
@@ -3613,7 +3613,7 @@
       <c r="J13" s="13">
         <v>0.61016949152542399</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="56">
         <v>0.73093220338983</v>
       </c>
     </row>
@@ -3631,10 +3631,10 @@
       <c r="F14" s="13">
         <v>0.59745762711864403</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="56">
         <v>0.64618644067796605</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="56">
         <v>0.73516949152542399</v>
       </c>
       <c r="I14" s="13">
@@ -3643,7 +3643,7 @@
       <c r="J14" s="13">
         <v>0.47245762711864397</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="56">
         <v>0.64194915254237295</v>
       </c>
     </row>
@@ -3721,10 +3721,10 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="56">
         <v>0.64830508474576298</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="56">
         <v>0.63347457627118597</v>
       </c>
       <c r="F17" s="13">
@@ -3733,7 +3733,7 @@
       <c r="G17" s="13">
         <v>0.61440677966101698</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="56">
         <v>0.63347457627118597</v>
       </c>
       <c r="I17" s="13">
@@ -3754,7 +3754,7 @@
       <c r="D18" s="13">
         <v>0.60593220338983</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="56">
         <v>0.644067796610169</v>
       </c>
       <c r="F18" s="13">
@@ -3763,7 +3763,7 @@
       <c r="G18" s="13">
         <v>0.60169491525423702</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="56">
         <v>0.62076271186440701</v>
       </c>
       <c r="I18" s="13">
@@ -3772,7 +3772,7 @@
       <c r="J18" s="13">
         <v>0.572033898305085</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="56">
         <v>0.66313559322033899</v>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       <c r="D19" s="13">
         <v>0.62288135593220295</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="56">
         <v>0.64830508474576298</v>
       </c>
       <c r="F19" s="13">
@@ -3796,7 +3796,7 @@
       <c r="G19" s="13">
         <v>0.59957627118644097</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="56">
         <v>0.66949152542372903</v>
       </c>
       <c r="I19" s="13">
@@ -3805,7 +3805,7 @@
       <c r="J19" s="13">
         <v>0.43432203389830498</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="56">
         <v>0.65042372881355903</v>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="56">
         <v>0.61016949152542399</v>
       </c>
       <c r="E20" s="13">
@@ -3827,7 +3827,7 @@
       <c r="G20" s="13">
         <v>0.49152542372881403</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="56">
         <v>0.62288135593220295</v>
       </c>
       <c r="I20" s="13">
@@ -3836,7 +3836,7 @@
       <c r="J20" s="13">
         <v>0.46610169491525399</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="56">
         <v>0.61016949152542399</v>
       </c>
     </row>
@@ -4044,19 +4044,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4107,16 +4107,16 @@
       <c r="D5" s="46">
         <v>0.86016949152542399</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="54">
         <v>0.894067796610169</v>
       </c>
       <c r="F5" s="12">
         <v>0.63559322033898302</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="54">
         <v>0.93644067796610198</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="54">
         <v>0.93220338983050799</v>
       </c>
       <c r="I5" s="12">
@@ -4137,7 +4137,7 @@
       <c r="D6" s="48">
         <v>0.77966101694915302</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="56">
         <v>0.94491525423728795</v>
       </c>
       <c r="F6" s="13">
@@ -4146,16 +4146,16 @@
       <c r="G6" s="13">
         <v>0.93220338983050799</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="56">
         <v>0.94491525423728795</v>
       </c>
       <c r="I6" s="13">
         <v>0.72881355932203395</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="56">
         <v>0.94491525423728795</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="57">
         <v>0.94491525423728795</v>
       </c>
     </row>
@@ -4173,16 +4173,16 @@
       <c r="E7" s="13">
         <v>0.83050847457627097</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="56">
         <v>0.86864406779660996</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="56">
         <v>0.91949152542372903</v>
       </c>
       <c r="H7" s="13">
         <v>0.77542372881355903</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="56">
         <v>0.95338983050847503</v>
       </c>
       <c r="J7" s="13">
@@ -4201,19 +4201,19 @@
       <c r="D8" s="49">
         <v>0.83050847457627097</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="59">
         <v>0.94491525423728795</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="59">
         <v>0.94067796610169496</v>
       </c>
       <c r="G8" s="14">
         <v>0.78813559322033899</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="59">
         <v>0.94491525423728795</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="59">
         <v>0.94067796610169496</v>
       </c>
       <c r="J8" s="14">
@@ -4242,19 +4242,19 @@
       <c r="F9" s="52">
         <v>0.76694915254237295</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="60">
         <v>0.94491525423728795</v>
       </c>
       <c r="H9" s="52">
         <v>0.76694915254237295</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="60">
         <v>0.94491525423728795</v>
       </c>
       <c r="J9" s="52">
         <v>0.69915254237288105</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="61">
         <v>0.855932203389831</v>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       <c r="D10" s="48">
         <v>0.83898305084745795</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="56">
         <v>0.927966101694915</v>
       </c>
       <c r="F10" s="13">
@@ -4278,10 +4278,10 @@
       <c r="H10" s="13">
         <v>0.80508474576271205</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="56">
         <v>0.94491525423728795</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="56">
         <v>0.94491525423728795</v>
       </c>
       <c r="K10" s="15">
@@ -4299,16 +4299,16 @@
       <c r="D11" s="48">
         <v>0.80932203389830504</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="56">
         <v>0.83898305084745795</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="56">
         <v>0.822033898305085</v>
       </c>
       <c r="G11" s="13">
         <v>0.78389830508474601</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="56">
         <v>0.94491525423728795</v>
       </c>
       <c r="I11" s="13">
@@ -4330,13 +4330,13 @@
       <c r="D12" s="49">
         <v>0.81355932203389802</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="59">
         <v>0.88559322033898302</v>
       </c>
       <c r="F12" s="14">
         <v>0.77542372881355903</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="59">
         <v>0.93644067796610198</v>
       </c>
       <c r="H12" s="14">
@@ -4348,7 +4348,7 @@
       <c r="J12" s="14">
         <v>0.70338983050847503</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="65">
         <v>0.95762711864406802</v>
       </c>
     </row>
@@ -4362,19 +4362,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="62">
         <v>0.83050847457627097</v>
       </c>
       <c r="E13" s="52">
         <v>0.80508474576271205</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="60">
         <v>0.855932203389831</v>
       </c>
       <c r="G13" s="52">
         <v>0.68644067796610198</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="60">
         <v>0.86864406779660996</v>
       </c>
       <c r="I13" s="52">
@@ -4392,7 +4392,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="63">
         <v>0.90254237288135597</v>
       </c>
       <c r="E14" s="13">
@@ -4404,13 +4404,13 @@
       <c r="G14" s="13">
         <v>0.77542372881355903</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="56">
         <v>0.91525423728813604</v>
       </c>
       <c r="I14" s="13">
         <v>0.86864406779660996</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="56">
         <v>0.85169491525423702</v>
       </c>
       <c r="K14" s="15">
@@ -4434,13 +4434,13 @@
       <c r="F15" s="13">
         <v>0.68644067796610198</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="56">
         <v>0.87288135593220295</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="56">
         <v>0.86016949152542399</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="56">
         <v>0.75847457627118597</v>
       </c>
       <c r="J15" s="13">
@@ -4462,16 +4462,16 @@
       <c r="E16" s="14">
         <v>0.63559322033898302</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="59">
         <v>0.75423728813559299</v>
       </c>
       <c r="G16" s="14">
         <v>0.58050847457627097</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="59">
         <v>0.78389830508474601</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="59">
         <v>0.86440677966101698</v>
       </c>
       <c r="J16" s="14">
@@ -4497,7 +4497,7 @@
       <c r="E17" s="52">
         <v>0.79237288135593198</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="60">
         <v>0.82627118644067798</v>
       </c>
       <c r="G17" s="52">
@@ -4506,10 +4506,10 @@
       <c r="H17" s="52">
         <v>0.72881355932203395</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="60">
         <v>0.86016949152542399</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="60">
         <v>0.80932203389830504</v>
       </c>
       <c r="K17" s="53">
@@ -4527,7 +4527,7 @@
       <c r="E18" s="13">
         <v>0.78389830508474601</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="56">
         <v>0.88559322033898302</v>
       </c>
       <c r="G18" s="13">
@@ -4536,10 +4536,10 @@
       <c r="H18" s="13">
         <v>0.77542372881355903</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="56">
         <v>0.94491525423728795</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="56">
         <v>0.94491525423728795</v>
       </c>
       <c r="K18" s="15">
@@ -4560,13 +4560,13 @@
       <c r="E19" s="13">
         <v>0.822033898305085</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="56">
         <v>0.855932203389831</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="56">
         <v>0.90254237288135597</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="56">
         <v>0.88983050847457601</v>
       </c>
       <c r="I19" s="13">
@@ -4588,7 +4588,7 @@
       <c r="D20" s="49">
         <v>0.79237288135593198</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="59">
         <v>0.927966101694915</v>
       </c>
       <c r="F20" s="14">
@@ -4597,10 +4597,10 @@
       <c r="G20" s="14">
         <v>0.86016949152542399</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="59">
         <v>0.93220338983050799</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="59">
         <v>0.94491525423728795</v>
       </c>
       <c r="J20" s="14">
@@ -4972,19 +4972,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5032,19 +5032,19 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="85">
         <v>6</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="86">
         <v>12</v>
       </c>
       <c r="F5" s="27">
         <v>18</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="86">
         <v>10</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="86">
         <v>12</v>
       </c>
       <c r="I5" s="27">
@@ -5053,7 +5053,7 @@
       <c r="J5" s="27">
         <v>8</v>
       </c>
-      <c r="K5" s="93">
+      <c r="K5" s="87">
         <v>6</v>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       <c r="D6" s="40">
         <v>6</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="88">
         <v>4</v>
       </c>
       <c r="F6" s="29">
@@ -5074,16 +5074,16 @@
       <c r="G6" s="29">
         <v>16</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="88">
         <v>12</v>
       </c>
       <c r="I6" s="29">
         <v>44</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="88">
         <v>6</v>
       </c>
-      <c r="K6" s="95">
+      <c r="K6" s="89">
         <v>3</v>
       </c>
     </row>
@@ -5101,16 +5101,16 @@
       <c r="E7" s="29">
         <v>10</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="88">
         <v>7</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="88">
         <v>7</v>
       </c>
       <c r="H7" s="29">
         <v>11</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="88">
         <v>19</v>
       </c>
       <c r="J7" s="29">
@@ -5129,25 +5129,25 @@
       <c r="D8" s="41">
         <v>9</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="90">
         <v>6</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="90">
         <v>4</v>
       </c>
       <c r="G8" s="45">
         <v>20</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="90">
         <v>5</v>
       </c>
-      <c r="I8" s="96">
+      <c r="I8" s="90">
         <v>20</v>
       </c>
       <c r="J8" s="45">
         <v>3</v>
       </c>
-      <c r="K8" s="97">
+      <c r="K8" s="91">
         <v>3</v>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="92">
         <v>11</v>
       </c>
       <c r="E9" s="37">
@@ -5170,19 +5170,19 @@
       <c r="F9" s="37">
         <v>10</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="93">
         <v>5</v>
       </c>
       <c r="H9" s="37">
         <v>10</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="93">
         <v>1</v>
       </c>
       <c r="J9" s="37">
         <v>7</v>
       </c>
-      <c r="K9" s="100">
+      <c r="K9" s="94">
         <v>11</v>
       </c>
     </row>
@@ -5194,7 +5194,7 @@
       <c r="D10" s="40">
         <v>4</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="88">
         <v>9</v>
       </c>
       <c r="F10" s="29">
@@ -5206,10 +5206,10 @@
       <c r="H10" s="29">
         <v>23</v>
       </c>
-      <c r="I10" s="94">
-        <v>1</v>
-      </c>
-      <c r="J10" s="94">
+      <c r="I10" s="88">
+        <v>1</v>
+      </c>
+      <c r="J10" s="88">
         <v>4</v>
       </c>
       <c r="K10" s="42">
@@ -5227,16 +5227,16 @@
       <c r="D11" s="40">
         <v>6</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="88">
         <v>4</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="88">
         <v>4</v>
       </c>
       <c r="G11" s="29">
         <v>13</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="88">
         <v>5</v>
       </c>
       <c r="I11" s="29">
@@ -5258,13 +5258,13 @@
       <c r="D12" s="41">
         <v>4</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="90">
         <v>6</v>
       </c>
       <c r="F12" s="45">
         <v>5</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="90">
         <v>8</v>
       </c>
       <c r="H12" s="45">
@@ -5276,7 +5276,7 @@
       <c r="J12" s="45">
         <v>6</v>
       </c>
-      <c r="K12" s="101">
+      <c r="K12" s="95">
         <v>5</v>
       </c>
     </row>
@@ -5290,19 +5290,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="96">
         <v>6</v>
       </c>
       <c r="E13" s="37">
         <v>5</v>
       </c>
-      <c r="F13" s="99">
+      <c r="F13" s="93">
         <v>6</v>
       </c>
       <c r="G13" s="37">
         <v>14</v>
       </c>
-      <c r="H13" s="99">
+      <c r="H13" s="93">
         <v>6</v>
       </c>
       <c r="I13" s="37">
@@ -5320,7 +5320,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="97">
         <v>12</v>
       </c>
       <c r="E14" s="29">
@@ -5332,13 +5332,13 @@
       <c r="G14" s="29">
         <v>21</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="88">
         <v>4</v>
       </c>
       <c r="I14" s="29">
         <v>5</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="88">
         <v>4</v>
       </c>
       <c r="K14" s="42">
@@ -5362,13 +5362,13 @@
       <c r="F15" s="29">
         <v>2</v>
       </c>
-      <c r="G15" s="94">
-        <v>2</v>
-      </c>
-      <c r="H15" s="94">
-        <v>2</v>
-      </c>
-      <c r="I15" s="94">
+      <c r="G15" s="88">
+        <v>2</v>
+      </c>
+      <c r="H15" s="88">
+        <v>2</v>
+      </c>
+      <c r="I15" s="88">
         <v>2</v>
       </c>
       <c r="J15" s="29">
@@ -5390,22 +5390,22 @@
       <c r="E16" s="45">
         <v>2</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F16" s="90">
         <v>5</v>
       </c>
       <c r="G16" s="45">
         <v>2</v>
       </c>
-      <c r="H16" s="96">
-        <v>2</v>
-      </c>
-      <c r="I16" s="96">
+      <c r="H16" s="90">
+        <v>2</v>
+      </c>
+      <c r="I16" s="90">
         <v>2</v>
       </c>
       <c r="J16" s="45">
         <v>2</v>
       </c>
-      <c r="K16" s="97">
+      <c r="K16" s="91">
         <v>2</v>
       </c>
     </row>
@@ -5419,13 +5419,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="92">
         <v>46</v>
       </c>
       <c r="E17" s="37">
         <v>46</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F17" s="93">
         <v>9</v>
       </c>
       <c r="G17" s="37">
@@ -5434,10 +5434,10 @@
       <c r="H17" s="37">
         <v>45</v>
       </c>
-      <c r="I17" s="99">
+      <c r="I17" s="93">
         <v>3</v>
       </c>
-      <c r="J17" s="99">
+      <c r="J17" s="93">
         <v>13</v>
       </c>
       <c r="K17" s="38">
@@ -5455,7 +5455,7 @@
       <c r="E18" s="29">
         <v>19</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="88">
         <v>4</v>
       </c>
       <c r="G18" s="29">
@@ -5464,10 +5464,10 @@
       <c r="H18" s="29">
         <v>22</v>
       </c>
-      <c r="I18" s="94">
+      <c r="I18" s="88">
         <v>4</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="88">
         <v>8</v>
       </c>
       <c r="K18" s="42">
@@ -5488,13 +5488,13 @@
       <c r="E19" s="29">
         <v>17</v>
       </c>
-      <c r="F19" s="94">
+      <c r="F19" s="88">
         <v>4</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="88">
         <v>4</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="88">
         <v>7</v>
       </c>
       <c r="I19" s="29">
@@ -5516,7 +5516,7 @@
       <c r="D20" s="41">
         <v>14</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E20" s="90">
         <v>7</v>
       </c>
       <c r="F20" s="45">
@@ -5525,16 +5525,16 @@
       <c r="G20" s="45">
         <v>12</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="90">
         <v>6</v>
       </c>
-      <c r="I20" s="96">
+      <c r="I20" s="90">
         <v>7</v>
       </c>
       <c r="J20" s="45">
         <v>17</v>
       </c>
-      <c r="K20" s="97">
+      <c r="K20" s="91">
         <v>12</v>
       </c>
     </row>
@@ -5742,19 +5742,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5802,28 +5802,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="67">
         <v>6.4</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="68">
         <v>6.5</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="69">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="68">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="68">
         <v>10.6</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="69">
         <v>30.7</v>
       </c>
-      <c r="J5" s="75">
+      <c r="J5" s="69">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K5" s="76">
+      <c r="K5" s="70">
         <v>6.9</v>
       </c>
     </row>
@@ -5832,10 +5832,10 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="71">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="72">
         <v>11.4</v>
       </c>
       <c r="F6" s="19">
@@ -5844,16 +5844,16 @@
       <c r="G6" s="19">
         <v>11.7</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="72">
         <v>17.399999999999999</v>
       </c>
       <c r="I6" s="19">
         <v>32.299999999999997</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="72">
         <v>5</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="73">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -5865,28 +5865,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="71">
         <v>6.3</v>
       </c>
       <c r="E7" s="19">
         <v>7.1</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="72">
         <v>6.4</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="72">
         <v>9.9</v>
       </c>
       <c r="H7" s="19">
         <v>8.4</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="72">
         <v>15.6</v>
       </c>
       <c r="J7" s="19">
         <v>7.9</v>
       </c>
-      <c r="K7" s="80">
+      <c r="K7" s="74">
         <v>8.4</v>
       </c>
     </row>
@@ -5896,28 +5896,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="75">
         <v>9.4</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="76">
         <v>11.4</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="76">
         <v>8.6999999999999993</v>
       </c>
       <c r="G8" s="44">
         <v>10.8</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="76">
         <v>14.6</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="76">
         <v>18.7</v>
       </c>
       <c r="J8" s="44">
         <v>9.5</v>
       </c>
-      <c r="K8" s="83">
+      <c r="K8" s="77">
         <v>11</v>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="78">
         <v>8.3000000000000007</v>
       </c>
       <c r="E9" s="36">
@@ -5940,19 +5940,19 @@
       <c r="F9" s="36">
         <v>6.3</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="79">
         <v>7.7</v>
       </c>
       <c r="H9" s="36">
         <v>12.3</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="79">
         <v>1</v>
       </c>
       <c r="J9" s="36">
         <v>6.5</v>
       </c>
-      <c r="K9" s="86">
+      <c r="K9" s="80">
         <v>8.5</v>
       </c>
     </row>
@@ -5961,10 +5961,10 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="71">
         <v>8</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="72">
         <v>8.4</v>
       </c>
       <c r="F10" s="19">
@@ -5976,13 +5976,13 @@
       <c r="H10" s="19">
         <v>12</v>
       </c>
-      <c r="I10" s="78">
-        <v>1</v>
-      </c>
-      <c r="J10" s="78">
+      <c r="I10" s="72">
+        <v>1</v>
+      </c>
+      <c r="J10" s="72">
         <v>8.4</v>
       </c>
-      <c r="K10" s="80">
+      <c r="K10" s="74">
         <v>11.9</v>
       </c>
     </row>
@@ -5994,19 +5994,19 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="71">
         <v>5.8</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="72">
         <v>7.9</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="72">
         <v>7</v>
       </c>
       <c r="G11" s="19">
         <v>10.3</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="72">
         <v>11.2</v>
       </c>
       <c r="I11" s="19">
@@ -6015,7 +6015,7 @@
       <c r="J11" s="19">
         <v>7.3</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="74">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -6025,16 +6025,16 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="75">
         <v>10.199999999999999</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="76">
         <v>9</v>
       </c>
       <c r="F12" s="44">
         <v>5.5</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="76">
         <v>10.199999999999999</v>
       </c>
       <c r="H12" s="44">
@@ -6046,7 +6046,7 @@
       <c r="J12" s="44">
         <v>5.2</v>
       </c>
-      <c r="K12" s="87">
+      <c r="K12" s="81">
         <v>12.9</v>
       </c>
     </row>
@@ -6060,19 +6060,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="82">
         <v>7.7</v>
       </c>
       <c r="E13" s="36">
         <v>12.4</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="79">
         <v>7.9</v>
       </c>
       <c r="G13" s="36">
         <v>9</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="79">
         <v>7.8</v>
       </c>
       <c r="I13" s="36">
@@ -6081,7 +6081,7 @@
       <c r="J13" s="36">
         <v>7.8</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="83">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="84">
         <v>8.9</v>
       </c>
       <c r="E14" s="19">
@@ -6102,16 +6102,16 @@
       <c r="G14" s="19">
         <v>12.7</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="72">
         <v>13</v>
       </c>
       <c r="I14" s="19">
         <v>16.3</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="72">
         <v>6</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="74">
         <v>12.4</v>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="71">
         <v>2</v>
       </c>
       <c r="E15" s="19">
@@ -6132,19 +6132,19 @@
       <c r="F15" s="19">
         <v>2</v>
       </c>
-      <c r="G15" s="78">
-        <v>2</v>
-      </c>
-      <c r="H15" s="78">
-        <v>2</v>
-      </c>
-      <c r="I15" s="78">
+      <c r="G15" s="72">
+        <v>2</v>
+      </c>
+      <c r="H15" s="72">
+        <v>2</v>
+      </c>
+      <c r="I15" s="72">
         <v>2</v>
       </c>
       <c r="J15" s="19">
         <v>2</v>
       </c>
-      <c r="K15" s="80">
+      <c r="K15" s="74">
         <v>2</v>
       </c>
     </row>
@@ -6154,28 +6154,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="75">
         <v>2</v>
       </c>
       <c r="E16" s="44">
         <v>2</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="76">
         <v>4.4000000000000004</v>
       </c>
       <c r="G16" s="44">
         <v>2</v>
       </c>
-      <c r="H16" s="82">
-        <v>2</v>
-      </c>
-      <c r="I16" s="82">
+      <c r="H16" s="76">
+        <v>2</v>
+      </c>
+      <c r="I16" s="76">
         <v>2</v>
       </c>
       <c r="J16" s="44">
         <v>2</v>
       </c>
-      <c r="K16" s="83">
+      <c r="K16" s="77">
         <v>2</v>
       </c>
     </row>
@@ -6189,13 +6189,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="78">
         <v>40.700000000000003</v>
       </c>
       <c r="E17" s="36">
         <v>34.1</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="79">
         <v>9.8000000000000007</v>
       </c>
       <c r="G17" s="36">
@@ -6204,13 +6204,13 @@
       <c r="H17" s="36">
         <v>29.8</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="79">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="79">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K17" s="89">
+      <c r="K17" s="83">
         <v>29</v>
       </c>
     </row>
@@ -6219,13 +6219,13 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="71">
         <v>34.9</v>
       </c>
       <c r="E18" s="19">
         <v>29.4</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="72">
         <v>8.1999999999999993</v>
       </c>
       <c r="G18" s="19">
@@ -6234,13 +6234,13 @@
       <c r="H18" s="19">
         <v>31.1</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="72">
         <v>6.6</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="72">
         <v>7.6</v>
       </c>
-      <c r="K18" s="80">
+      <c r="K18" s="74">
         <v>31.3</v>
       </c>
     </row>
@@ -6252,19 +6252,19 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="71">
         <v>10.9</v>
       </c>
       <c r="E19" s="19">
         <v>11.3</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="72">
         <v>9</v>
       </c>
-      <c r="G19" s="78">
+      <c r="G19" s="72">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="72">
         <v>8.1999999999999993</v>
       </c>
       <c r="I19" s="19">
@@ -6273,7 +6273,7 @@
       <c r="J19" s="19">
         <v>5.9</v>
       </c>
-      <c r="K19" s="80">
+      <c r="K19" s="74">
         <v>12.8</v>
       </c>
     </row>
@@ -6283,10 +6283,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="75">
         <v>10.9</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="76">
         <v>7.9</v>
       </c>
       <c r="F20" s="44">
@@ -6295,16 +6295,16 @@
       <c r="G20" s="44">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H20" s="82">
+      <c r="H20" s="76">
         <v>10.5</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="76">
         <v>5.7</v>
       </c>
       <c r="J20" s="44">
         <v>9.6</v>
       </c>
-      <c r="K20" s="83">
+      <c r="K20" s="77">
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -6515,24 +6515,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6542,29 +6542,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="56" t="s">
+      <c r="L3" s="101"/>
+      <c r="M3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="56" t="s">
+      <c r="N3" s="101"/>
+      <c r="O3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="58"/>
+      <c r="P3" s="102"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6626,7 +6626,7 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="92">
         <v>512</v>
       </c>
       <c r="E5" s="37">
@@ -7368,7 +7368,7 @@
       <c r="O20" s="43">
         <v>6.25E-2</v>
       </c>
-      <c r="P20" s="97">
+      <c r="P20" s="91">
         <v>2</v>
       </c>
     </row>
@@ -7648,19 +7648,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7708,19 +7708,19 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="91">
-        <v>1</v>
-      </c>
-      <c r="E5" s="92">
+      <c r="D5" s="85">
+        <v>1</v>
+      </c>
+      <c r="E5" s="86">
         <v>1</v>
       </c>
       <c r="F5" s="27">
         <v>1</v>
       </c>
-      <c r="G5" s="92">
-        <v>1</v>
-      </c>
-      <c r="H5" s="92">
+      <c r="G5" s="86">
+        <v>1</v>
+      </c>
+      <c r="H5" s="86">
         <v>1</v>
       </c>
       <c r="I5" s="27">
@@ -7729,7 +7729,7 @@
       <c r="J5" s="27">
         <v>1</v>
       </c>
-      <c r="K5" s="93">
+      <c r="K5" s="87">
         <v>1</v>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       <c r="D6" s="40">
         <v>2</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="88">
         <v>9</v>
       </c>
       <c r="F6" s="29">
@@ -7750,16 +7750,16 @@
       <c r="G6" s="29">
         <v>4</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="88">
         <v>10</v>
       </c>
       <c r="I6" s="29">
         <v>9</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="88">
         <v>10</v>
       </c>
-      <c r="K6" s="95">
+      <c r="K6" s="89">
         <v>6</v>
       </c>
     </row>
@@ -7777,16 +7777,16 @@
       <c r="E7" s="29">
         <v>1</v>
       </c>
-      <c r="F7" s="94">
-        <v>1</v>
-      </c>
-      <c r="G7" s="94">
+      <c r="F7" s="88">
+        <v>1</v>
+      </c>
+      <c r="G7" s="88">
         <v>1</v>
       </c>
       <c r="H7" s="29">
         <v>1</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="88">
         <v>1</v>
       </c>
       <c r="J7" s="29">
@@ -7805,25 +7805,25 @@
       <c r="D8" s="41">
         <v>3</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="90">
         <v>7</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="90">
         <v>9</v>
       </c>
       <c r="G8" s="45">
         <v>2</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="90">
         <v>10</v>
       </c>
-      <c r="I8" s="96">
+      <c r="I8" s="90">
         <v>4</v>
       </c>
       <c r="J8" s="45">
         <v>5</v>
       </c>
-      <c r="K8" s="97">
+      <c r="K8" s="91">
         <v>9</v>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="92">
         <v>1</v>
       </c>
       <c r="E9" s="37">
@@ -7846,19 +7846,19 @@
       <c r="F9" s="37">
         <v>1</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="93">
         <v>1</v>
       </c>
       <c r="H9" s="37">
         <v>1</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="93">
         <v>1</v>
       </c>
       <c r="J9" s="37">
         <v>1</v>
       </c>
-      <c r="K9" s="100">
+      <c r="K9" s="94">
         <v>1</v>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
       <c r="D10" s="40">
         <v>2</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="88">
         <v>6</v>
       </c>
       <c r="F10" s="29">
@@ -7882,10 +7882,10 @@
       <c r="H10" s="29">
         <v>2</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="88">
         <v>4</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="88">
         <v>9</v>
       </c>
       <c r="K10" s="42">
@@ -7903,16 +7903,16 @@
       <c r="D11" s="40">
         <v>1</v>
       </c>
-      <c r="E11" s="94">
-        <v>1</v>
-      </c>
-      <c r="F11" s="94">
+      <c r="E11" s="88">
+        <v>1</v>
+      </c>
+      <c r="F11" s="88">
         <v>1</v>
       </c>
       <c r="G11" s="29">
         <v>1</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="88">
         <v>1</v>
       </c>
       <c r="I11" s="29">
@@ -7934,13 +7934,13 @@
       <c r="D12" s="41">
         <v>2</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="90">
         <v>9</v>
       </c>
       <c r="F12" s="45">
         <v>6</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="90">
         <v>6</v>
       </c>
       <c r="H12" s="45">
@@ -7952,7 +7952,7 @@
       <c r="J12" s="45">
         <v>2</v>
       </c>
-      <c r="K12" s="101">
+      <c r="K12" s="95">
         <v>5</v>
       </c>
     </row>
@@ -7966,19 +7966,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="96">
         <v>1</v>
       </c>
       <c r="E13" s="37">
         <v>1</v>
       </c>
-      <c r="F13" s="99">
+      <c r="F13" s="93">
         <v>1</v>
       </c>
       <c r="G13" s="37">
         <v>1</v>
       </c>
-      <c r="H13" s="99">
+      <c r="H13" s="93">
         <v>1</v>
       </c>
       <c r="I13" s="37">
@@ -7996,7 +7996,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="97">
         <v>5</v>
       </c>
       <c r="E14" s="29">
@@ -8008,13 +8008,13 @@
       <c r="G14" s="29">
         <v>7</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="88">
         <v>5</v>
       </c>
       <c r="I14" s="29">
         <v>2</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="88">
         <v>2</v>
       </c>
       <c r="K14" s="42">
@@ -8038,13 +8038,13 @@
       <c r="F15" s="29">
         <v>1</v>
       </c>
-      <c r="G15" s="94">
-        <v>1</v>
-      </c>
-      <c r="H15" s="94">
-        <v>1</v>
-      </c>
-      <c r="I15" s="94">
+      <c r="G15" s="88">
+        <v>1</v>
+      </c>
+      <c r="H15" s="88">
+        <v>1</v>
+      </c>
+      <c r="I15" s="88">
         <v>1</v>
       </c>
       <c r="J15" s="29">
@@ -8066,22 +8066,22 @@
       <c r="E16" s="45">
         <v>5</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F16" s="90">
         <v>2</v>
       </c>
       <c r="G16" s="45">
         <v>5</v>
       </c>
-      <c r="H16" s="96">
+      <c r="H16" s="90">
         <v>6</v>
       </c>
-      <c r="I16" s="96">
+      <c r="I16" s="90">
         <v>5</v>
       </c>
       <c r="J16" s="45">
         <v>8</v>
       </c>
-      <c r="K16" s="97">
+      <c r="K16" s="91">
         <v>3</v>
       </c>
     </row>
@@ -8095,13 +8095,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="92">
         <v>1</v>
       </c>
       <c r="E17" s="37">
         <v>1</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F17" s="93">
         <v>1</v>
       </c>
       <c r="G17" s="37">
@@ -8110,10 +8110,10 @@
       <c r="H17" s="37">
         <v>1</v>
       </c>
-      <c r="I17" s="99">
-        <v>1</v>
-      </c>
-      <c r="J17" s="99">
+      <c r="I17" s="93">
+        <v>1</v>
+      </c>
+      <c r="J17" s="93">
         <v>1</v>
       </c>
       <c r="K17" s="38">
@@ -8131,7 +8131,7 @@
       <c r="E18" s="29">
         <v>10</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="88">
         <v>9</v>
       </c>
       <c r="G18" s="29">
@@ -8140,10 +8140,10 @@
       <c r="H18" s="29">
         <v>3</v>
       </c>
-      <c r="I18" s="94">
+      <c r="I18" s="88">
         <v>7</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="88">
         <v>10</v>
       </c>
       <c r="K18" s="42">
@@ -8164,13 +8164,13 @@
       <c r="E19" s="29">
         <v>1</v>
       </c>
-      <c r="F19" s="94">
-        <v>1</v>
-      </c>
-      <c r="G19" s="94">
-        <v>1</v>
-      </c>
-      <c r="H19" s="94">
+      <c r="F19" s="88">
+        <v>1</v>
+      </c>
+      <c r="G19" s="88">
+        <v>1</v>
+      </c>
+      <c r="H19" s="88">
         <v>1</v>
       </c>
       <c r="I19" s="29">
@@ -8192,7 +8192,7 @@
       <c r="D20" s="41">
         <v>4</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E20" s="90">
         <v>9</v>
       </c>
       <c r="F20" s="45">
@@ -8201,16 +8201,16 @@
       <c r="G20" s="45">
         <v>5</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="90">
         <v>10</v>
       </c>
-      <c r="I20" s="96">
+      <c r="I20" s="90">
         <v>7</v>
       </c>
       <c r="J20" s="45">
         <v>2</v>
       </c>
-      <c r="K20" s="97">
+      <c r="K20" s="91">
         <v>2</v>
       </c>
     </row>
@@ -8418,19 +8418,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8478,28 +8478,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="73">
-        <v>1</v>
-      </c>
-      <c r="E5" s="74">
-        <v>1</v>
-      </c>
-      <c r="F5" s="75">
-        <v>1</v>
-      </c>
-      <c r="G5" s="74">
-        <v>1</v>
-      </c>
-      <c r="H5" s="74">
-        <v>1</v>
-      </c>
-      <c r="I5" s="75">
-        <v>1</v>
-      </c>
-      <c r="J5" s="75">
-        <v>1</v>
-      </c>
-      <c r="K5" s="76">
+      <c r="D5" s="67">
+        <v>1</v>
+      </c>
+      <c r="E5" s="68">
+        <v>1</v>
+      </c>
+      <c r="F5" s="69">
+        <v>1</v>
+      </c>
+      <c r="G5" s="68">
+        <v>1</v>
+      </c>
+      <c r="H5" s="68">
+        <v>1</v>
+      </c>
+      <c r="I5" s="69">
+        <v>1</v>
+      </c>
+      <c r="J5" s="69">
+        <v>1</v>
+      </c>
+      <c r="K5" s="70">
         <v>1</v>
       </c>
     </row>
@@ -8508,10 +8508,10 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="71">
         <v>3.2</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="72">
         <v>6</v>
       </c>
       <c r="F6" s="19">
@@ -8520,16 +8520,16 @@
       <c r="G6" s="19">
         <v>4.2</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="72">
         <v>6.7</v>
       </c>
       <c r="I6" s="19">
         <v>6.1</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="72">
         <v>5.5</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="73">
         <v>5.2</v>
       </c>
     </row>
@@ -8541,28 +8541,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="71">
         <v>1</v>
       </c>
       <c r="E7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="78">
-        <v>1</v>
-      </c>
-      <c r="G7" s="78">
+      <c r="F7" s="72">
+        <v>1</v>
+      </c>
+      <c r="G7" s="72">
         <v>1</v>
       </c>
       <c r="H7" s="19">
         <v>1</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="72">
         <v>1</v>
       </c>
       <c r="J7" s="19">
         <v>1</v>
       </c>
-      <c r="K7" s="80">
+      <c r="K7" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8572,28 +8572,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="75">
         <v>3.6</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="76">
         <v>4.7</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="76">
         <v>4.8</v>
       </c>
       <c r="G8" s="44">
         <v>4.8</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="76">
         <v>5.7</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="76">
         <v>5.5</v>
       </c>
       <c r="J8" s="44">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K8" s="83">
+      <c r="K8" s="77">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -8607,7 +8607,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="78">
         <v>1</v>
       </c>
       <c r="E9" s="36">
@@ -8616,19 +8616,19 @@
       <c r="F9" s="36">
         <v>1</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="79">
         <v>1</v>
       </c>
       <c r="H9" s="36">
         <v>1</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="79">
         <v>1</v>
       </c>
       <c r="J9" s="36">
         <v>1</v>
       </c>
-      <c r="K9" s="86">
+      <c r="K9" s="80">
         <v>1</v>
       </c>
     </row>
@@ -8637,10 +8637,10 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="71">
         <v>3</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="72">
         <v>5.0999999999999996</v>
       </c>
       <c r="F10" s="19">
@@ -8652,13 +8652,13 @@
       <c r="H10" s="19">
         <v>4.3</v>
       </c>
-      <c r="I10" s="78">
+      <c r="I10" s="72">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="72">
         <v>3.9</v>
       </c>
-      <c r="K10" s="80">
+      <c r="K10" s="74">
         <v>4.7</v>
       </c>
     </row>
@@ -8670,19 +8670,19 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="77">
-        <v>1</v>
-      </c>
-      <c r="E11" s="78">
-        <v>1</v>
-      </c>
-      <c r="F11" s="78">
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="72">
+        <v>1</v>
+      </c>
+      <c r="F11" s="72">
         <v>1</v>
       </c>
       <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="72">
         <v>1</v>
       </c>
       <c r="I11" s="19">
@@ -8691,7 +8691,7 @@
       <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8701,16 +8701,16 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="76">
         <v>5.7</v>
       </c>
       <c r="F12" s="44">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="76">
         <v>6.9</v>
       </c>
       <c r="H12" s="44">
@@ -8722,7 +8722,7 @@
       <c r="J12" s="44">
         <v>6.3</v>
       </c>
-      <c r="K12" s="87">
+      <c r="K12" s="81">
         <v>5</v>
       </c>
     </row>
@@ -8736,19 +8736,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="82">
         <v>1</v>
       </c>
       <c r="E13" s="36">
         <v>1</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="79">
         <v>1</v>
       </c>
       <c r="G13" s="36">
         <v>1</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="79">
         <v>1</v>
       </c>
       <c r="I13" s="36">
@@ -8757,7 +8757,7 @@
       <c r="J13" s="36">
         <v>1</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="83">
         <v>1</v>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="84">
         <v>4.4000000000000004</v>
       </c>
       <c r="E14" s="19">
@@ -8778,16 +8778,16 @@
       <c r="G14" s="19">
         <v>5.8</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="72">
         <v>5.4</v>
       </c>
       <c r="I14" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="72">
         <v>5</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="74">
         <v>5.3</v>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="71">
         <v>1</v>
       </c>
       <c r="E15" s="19">
@@ -8808,19 +8808,19 @@
       <c r="F15" s="19">
         <v>1</v>
       </c>
-      <c r="G15" s="78">
-        <v>1</v>
-      </c>
-      <c r="H15" s="78">
-        <v>1</v>
-      </c>
-      <c r="I15" s="78">
+      <c r="G15" s="72">
+        <v>1</v>
+      </c>
+      <c r="H15" s="72">
+        <v>1</v>
+      </c>
+      <c r="I15" s="72">
         <v>1</v>
       </c>
       <c r="J15" s="19">
         <v>1</v>
       </c>
-      <c r="K15" s="80">
+      <c r="K15" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8830,28 +8830,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="75">
         <v>5.3</v>
       </c>
       <c r="E16" s="44">
         <v>6</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="76">
         <v>6.6</v>
       </c>
       <c r="G16" s="44">
         <v>5.3</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="76">
         <v>6</v>
       </c>
-      <c r="I16" s="82">
+      <c r="I16" s="76">
         <v>6.6</v>
       </c>
       <c r="J16" s="44">
         <v>6.4</v>
       </c>
-      <c r="K16" s="83">
+      <c r="K16" s="77">
         <v>6.8</v>
       </c>
     </row>
@@ -8865,13 +8865,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="78">
         <v>1</v>
       </c>
       <c r="E17" s="36">
         <v>1</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="79">
         <v>1</v>
       </c>
       <c r="G17" s="36">
@@ -8880,13 +8880,13 @@
       <c r="H17" s="36">
         <v>1</v>
       </c>
-      <c r="I17" s="85">
-        <v>1</v>
-      </c>
-      <c r="J17" s="85">
-        <v>1</v>
-      </c>
-      <c r="K17" s="89">
+      <c r="I17" s="79">
+        <v>1</v>
+      </c>
+      <c r="J17" s="79">
+        <v>1</v>
+      </c>
+      <c r="K17" s="83">
         <v>1</v>
       </c>
     </row>
@@ -8895,13 +8895,13 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="71">
         <v>5.5</v>
       </c>
       <c r="E18" s="19">
         <v>5.7</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="72">
         <v>5.3</v>
       </c>
       <c r="G18" s="19">
@@ -8910,13 +8910,13 @@
       <c r="H18" s="19">
         <v>5.3</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="72">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="72">
         <v>6.3</v>
       </c>
-      <c r="K18" s="80">
+      <c r="K18" s="74">
         <v>5</v>
       </c>
     </row>
@@ -8928,19 +8928,19 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="71">
         <v>1</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
-      <c r="F19" s="78">
-        <v>1</v>
-      </c>
-      <c r="G19" s="78">
-        <v>1</v>
-      </c>
-      <c r="H19" s="78">
+      <c r="F19" s="72">
+        <v>1</v>
+      </c>
+      <c r="G19" s="72">
+        <v>1</v>
+      </c>
+      <c r="H19" s="72">
         <v>1</v>
       </c>
       <c r="I19" s="19">
@@ -8949,7 +8949,7 @@
       <c r="J19" s="19">
         <v>1</v>
       </c>
-      <c r="K19" s="80">
+      <c r="K19" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8959,10 +8959,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="75">
         <v>3.4</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="76">
         <v>5.2</v>
       </c>
       <c r="F20" s="44">
@@ -8971,16 +8971,16 @@
       <c r="G20" s="44">
         <v>6</v>
       </c>
-      <c r="H20" s="82">
+      <c r="H20" s="76">
         <v>5.9</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="76">
         <v>6.2</v>
       </c>
       <c r="J20" s="44">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K20" s="83">
+      <c r="K20" s="77">
         <v>5.8</v>
       </c>
     </row>
@@ -9169,8 +9169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E093FD04-CF21-4625-BBAE-D18349CAAAA7}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" activeCellId="1" sqref="F17 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9178,78 +9178,77 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="101"/>
+      <c r="F3" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="101"/>
+      <c r="H3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="101"/>
+      <c r="J3" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="101"/>
+      <c r="L3" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="56" t="s">
+      <c r="M3" s="101"/>
+      <c r="N3" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="101"/>
+      <c r="P3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="101"/>
+      <c r="R3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="58"/>
+      <c r="S3" s="102"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -9326,7 +9325,7 @@
       <c r="E5" s="27">
         <v>1024.001</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="66">
         <v>0.25</v>
       </c>
       <c r="G5" s="27">
@@ -9416,7 +9415,7 @@
       <c r="Q6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="13">
         <v>0.125</v>
       </c>
       <c r="S6" s="29">
@@ -9510,7 +9509,7 @@
       <c r="K8" s="29">
         <v>1024.001</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="31">
         <v>1.953125E-3</v>
       </c>
       <c r="M8" s="29">
@@ -9528,7 +9527,7 @@
       <c r="Q8" s="29">
         <v>1024.001</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="31">
         <v>3.125E-2</v>
       </c>
       <c r="S8" s="29">
@@ -9563,7 +9562,7 @@
       <c r="I9" s="29">
         <v>1</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="31">
         <v>1E-4</v>
       </c>
       <c r="K9" s="29">
@@ -9674,7 +9673,7 @@
       <c r="I11" s="29">
         <v>1</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="31">
         <v>1E-3</v>
       </c>
       <c r="K11" s="29">
@@ -9686,7 +9685,7 @@
       <c r="M11" s="29">
         <v>1</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="31">
         <v>1E-4</v>
       </c>
       <c r="O11" s="29">
@@ -9729,7 +9728,7 @@
       <c r="I12" s="29">
         <v>1</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="31">
         <v>1E-3</v>
       </c>
       <c r="K12" s="29">
@@ -9741,7 +9740,7 @@
       <c r="M12" s="29">
         <v>1</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="13">
         <v>1E-3</v>
       </c>
       <c r="O12" s="29">
@@ -9779,7 +9778,7 @@
       <c r="F13" s="31">
         <v>1.5625E-2</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="13">
         <v>0.1259765625</v>
       </c>
       <c r="H13" s="30">
@@ -9794,7 +9793,7 @@
       <c r="K13" s="29">
         <v>0.5009765625</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="31">
         <v>9.765625E-4</v>
       </c>
       <c r="M13" s="13">
@@ -9839,7 +9838,7 @@
       <c r="H14" s="31">
         <v>1.5625E-2</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="31">
         <v>1.66015625E-2</v>
       </c>
       <c r="J14" s="31">
@@ -9863,7 +9862,7 @@
       <c r="P14" s="30">
         <v>0.25</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="30">
         <v>0.2509765625</v>
       </c>
       <c r="R14" s="30">
@@ -9881,7 +9880,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="31">
         <v>0.125</v>
       </c>
       <c r="E15" s="13">
@@ -9893,7 +9892,7 @@
       <c r="G15" s="29">
         <v>64.0009765625</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="31">
         <v>9.765625E-4</v>
       </c>
       <c r="I15" s="29">
@@ -9905,13 +9904,13 @@
       <c r="K15" s="13">
         <v>0.2509765625</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="31">
         <v>7.8125E-3</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="30">
         <v>0.2509765625</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="31">
         <v>6.25E-2</v>
       </c>
       <c r="O15" s="13">
@@ -9936,13 +9935,13 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="31">
         <v>9.765625E-4</v>
       </c>
       <c r="E16" s="29">
         <v>64.0009765625</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="13">
         <v>9.765625E-4</v>
       </c>
       <c r="G16" s="29">
@@ -9954,7 +9953,7 @@
       <c r="I16" s="29">
         <v>1024.0009765625</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="31">
         <v>9.765625E-4</v>
       </c>
       <c r="K16" s="29">
@@ -9966,7 +9965,7 @@
       <c r="M16" s="29">
         <v>0.5009765625</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="31">
         <v>1.5625E-2</v>
       </c>
       <c r="O16" s="31">
@@ -9995,13 +9994,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="31">
         <v>0.25</v>
       </c>
       <c r="E17" s="29">
         <v>128.0009765625</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="13">
         <v>0.125</v>
       </c>
       <c r="G17" s="29">
@@ -10010,7 +10009,7 @@
       <c r="H17" s="31">
         <v>1.953125E-3</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="31">
         <v>6.34765625E-2</v>
       </c>
       <c r="J17" s="29">
@@ -10112,10 +10111,10 @@
       <c r="E19" s="29">
         <v>1024.0009765625</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="31">
         <v>3.90625E-3</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="31">
         <v>8.7890625E-3</v>
       </c>
       <c r="H19" s="31">
@@ -10139,7 +10138,7 @@
       <c r="N19" s="29">
         <v>-64</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="30">
         <v>-0.4990234375</v>
       </c>
       <c r="P19" s="31">
@@ -10191,19 +10190,19 @@
       <c r="M20" s="29">
         <v>1.0009765625</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="31">
         <v>-6.25E-2</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="13">
         <v>0.1259765625</v>
       </c>
       <c r="P20" s="13">
         <v>0.125</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="30">
         <v>0.5009765625</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="13">
         <v>9.765625E-4</v>
       </c>
       <c r="S20" s="13">
